--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.calabretta\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="135">
   <si>
     <t>Variable</t>
   </si>
@@ -225,12 +225,250 @@
   </si>
   <si>
     <t>ColumnLaRETAILl</t>
+  </si>
+  <si>
+    <t>Indicatore 2 - CRR Default</t>
+  </si>
+  <si>
+    <t>Indicatore 6 - Past Due</t>
+  </si>
+  <si>
+    <t>Indicatore 7 - Forborne NPE</t>
+  </si>
+  <si>
+    <t>Indicatore 10 - Protesto di cambiali o di assegni</t>
+  </si>
+  <si>
+    <t>Indicatore 11 - Proposta di sistemazione delle esposizioni mediante soluzione a saldo e stralcio</t>
+  </si>
+  <si>
+    <t>Indicatore 12 - Segnalazione a sofferenze nella Centrale dei Rischi, se di importi congrui</t>
+  </si>
+  <si>
+    <t>Indicatore 13 - Inadempimenti rispetto agli obblighi di pagamento dei titoli di debito emessi</t>
+  </si>
+  <si>
+    <t>Indicatore 15 - Gravi fenomeni gestione personale</t>
+  </si>
+  <si>
+    <t>Indicatore 17 - Decanalizzazione ed emissione di portafoglio comodo o abusivo</t>
+  </si>
+  <si>
+    <t>Indicatore 18 - Coinvolgimento in reati gravi con conseguenze economiche e giudiziali</t>
+  </si>
+  <si>
+    <t>Indicatore 22 - Debiti scaduti di importo significativo nei confronti di Enti pubblici</t>
+  </si>
+  <si>
+    <t>Indicatore 26 - Past due public creditors / employees</t>
+  </si>
+  <si>
+    <t>Indicatore 27 - Collateral Value Decrease</t>
+  </si>
+  <si>
+    <t>Indicatore 28 - Delta Cashflow</t>
+  </si>
+  <si>
+    <t>Indicatore 29 - Covenant Breach</t>
+  </si>
+  <si>
+    <t>Indicatore 31 - Covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>Indicatore 34 - Incrocio Assegni bancari</t>
+  </si>
+  <si>
+    <t>Indicatore 35 - Coinvolgimento famigliari in reati gravi</t>
+  </si>
+  <si>
+    <t>Indicatore 16 - Crisi di sovraindebitamento</t>
+  </si>
+  <si>
+    <t>IND_2</t>
+  </si>
+  <si>
+    <t>IND_6</t>
+  </si>
+  <si>
+    <t>IND_7</t>
+  </si>
+  <si>
+    <t>IND_10</t>
+  </si>
+  <si>
+    <t>IND_11</t>
+  </si>
+  <si>
+    <t>IND_12</t>
+  </si>
+  <si>
+    <t>IND_13</t>
+  </si>
+  <si>
+    <t>IND_15</t>
+  </si>
+  <si>
+    <t>IND_17</t>
+  </si>
+  <si>
+    <t>IND_18</t>
+  </si>
+  <si>
+    <t>IND_22</t>
+  </si>
+  <si>
+    <t>IND_26</t>
+  </si>
+  <si>
+    <t>IND_27</t>
+  </si>
+  <si>
+    <t>IND_28</t>
+  </si>
+  <si>
+    <t>IND_29</t>
+  </si>
+  <si>
+    <t>IND_31</t>
+  </si>
+  <si>
+    <t>IND_34</t>
+  </si>
+  <si>
+    <t>IND_35</t>
+  </si>
+  <si>
+    <t>IND_16</t>
+  </si>
+  <si>
+    <t>Indicazione dello stato di Default (CRR Default)</t>
+  </si>
+  <si>
+    <t>For each SNDG, the value associated to the Indicatore depends on the last updated “ST-SEGNALAZ” value. The Indicator is “true” (value 1), if the “ST-SEGNALAZ” field is valued as "N" or “C”.</t>
+  </si>
+  <si>
+    <t>The Indicator is “true” (value 1), if:
+- the "SAG Status" field is valued as “IF” - "probable default forborne" 
+- or if the SNDG has at least one Forborne status in “Forborne” and the “CRR Default” Indicatore (Ref. Section 4.2.2 Indicatore 2: "CRR Default”) is True (Value 1)</t>
+  </si>
+  <si>
+    <t>Protesto di cambiali o di assegni, con particolare riferimento a quello d'iniziativa della banca (IRIS FATAL).
+Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
+  </si>
+  <si>
+    <t>Proposta di sistemazione delle esposizioni mediante soluzione a saldo e stralcio .
+Il campo assume valore 1, se l’SNDG ha una Delibera di tipo Saldo e Stralcio (valori T2 e T3) in stato Confermato (CO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segnalazione a sofferenze (obbligato e non in qualità di garante) nella Centrale dei Rischi, se di importi congrui (IRIS FATAL). 
+Per la controparte oggetto delle valutazioni, per calcolare tale indicatore devono essere considerate le sofferenze su altri istituti del Sistema in ambito segnalazione centrale rischi. 
+L’indicatore è la Ratio Segnalazione a sofferenze dove:
+Numeratore: (importo a sofferenza SISTEMA – importo a sofferenza GRUPPO ISP)
+Denominatore: MAX(accordato operativo totale, utilizzato totale) 
+</t>
+  </si>
+  <si>
+    <t>Inadempimenti rispetto agli obblighi di puntuale ed integrale pagamento relativamente ai titoli di debito emessi, siano essi quotati che non.
+Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
+  </si>
+  <si>
+    <t>Gravi fenomeni gestione personale (specificare in modo accurato l'ambito di riferimento, che dovrà essere limitato a situazioni di gravità estrema, quali:  licenziamento collettivo/mobilità, Cassa Integrazione Straordinaria)</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG l'indicatore riporta il valore 1, se si verifica la presenza della notizia di una "Crisi di Sovraindebitamento" che verrà alimentata in maniera Judgmental dal gestore tramite flusso di ritorno dall'interfaccia EW Web.</t>
+  </si>
+  <si>
+    <t>Decanalizzazione ed emissione di portafoglio comodo o abusivo</t>
+  </si>
+  <si>
+    <t>coinvolgimento del debitore, degli esponenti dell'impresa o anche dei soci (qualora trattasi di persone giuridiche) in reati gravi (reati contro la PA, reati di stampo mafioso, reati contro il patrimonio, reati contro la fede pubblica, o reati fallimentari, societari, finanziari e tributari) forieri di pesanti conseguenze economiche e giudiziali.</t>
+  </si>
+  <si>
+    <t>Debiti scaduti di importo significativo nei confronti di Enti pubblici (emissione di cartelle esattoriali di importo significativo)</t>
+  </si>
+  <si>
+    <t>Indicazione della presenza di past due verso l'amministrazione pubblica</t>
+  </si>
+  <si>
+    <t>Indicazione di Collateral Value in decremento</t>
+  </si>
+  <si>
+    <t>Indicazione di futuri flussi di cassa in decremento</t>
+  </si>
+  <si>
+    <t>In presenza di un COVENANT ROTTI NON ANCORA SANATI, quindi in stato di situazione non risolta, l'indicatore assume, in caso di mancata delibera di autorizzazione, il valore in giorni della distanza tra la data di calcolo (SYSDATE) e la la data di rottura del covenant.</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza di un covenant non rispettato e non sanato</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza della notizia pregiudizievole di "Incrocio assegni bancari"</t>
+  </si>
+  <si>
+    <t>Per il singolo SNDG viene riportato il valore 1, se si verifica la presenza della notizia pregiudizievole di coinvolgimento dei familiari stretti del debitore in reati gravi (reati contro la PA, reati di stampo mafioso, reati contro il patrimonio, reati contro la fede pubblica, o reati fallimentari, societari, finanziari e tributari) forieri di pesanti conseguenze economiche e giudiziali.</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_2</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_6</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_7</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_10</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_11</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_12</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_13</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_15</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_16</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_17</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_18</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_22</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_26</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_27</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_28</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_29</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_31</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_34</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -358,6 +596,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +700,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -514,8 +758,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -572,8 +816,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -630,8 +874,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -688,8 +932,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -794,8 +1038,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -852,8 +1096,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,8 +1154,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -968,8 +1212,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1026,8 +1270,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1383,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,6 +1832,785 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>203</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6">
+        <v>204</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="6">
+        <v>205</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6">
+        <v>206</v>
+      </c>
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="6">
+        <v>207</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6">
+        <v>208</v>
+      </c>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6">
+        <v>209</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="6">
+        <v>210</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="6">
+        <v>221</v>
+      </c>
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6">
+        <v>211</v>
+      </c>
+      <c r="H15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6">
+        <v>212</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6">
+        <v>213</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6">
+        <v>214</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="6">
+        <v>215</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="6">
+        <v>216</v>
+      </c>
+      <c r="H20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="6">
+        <v>217</v>
+      </c>
+      <c r="H21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="6">
+        <v>218</v>
+      </c>
+      <c r="H22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6">
+        <v>219</v>
+      </c>
+      <c r="H23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="6">
+        <v>220</v>
+      </c>
+      <c r="H24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1598,11 +2621,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,6 +2716,329 @@
         <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="138">
   <si>
     <t>Variable</t>
   </si>
@@ -182,9 +182,6 @@
     <t>TARGET</t>
   </si>
   <si>
-    <t>REAl</t>
-  </si>
-  <si>
     <t>VariableType</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>RETAIL_SEGMENT</t>
   </si>
   <si>
-    <t>ColumnLaRETAILl</t>
-  </si>
-  <si>
     <t>Indicatore 2 - CRR Default</t>
   </si>
   <si>
@@ -282,15 +276,6 @@
   </si>
   <si>
     <t>Indicatore 16 - Crisi di sovraindebitamento</t>
-  </si>
-  <si>
-    <t>IND_2</t>
-  </si>
-  <si>
-    <t>IND_6</t>
-  </si>
-  <si>
-    <t>IND_7</t>
   </si>
   <si>
     <t>IND_10</t>
@@ -356,18 +341,6 @@
 Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
   </si>
   <si>
-    <t>Proposta di sistemazione delle esposizioni mediante soluzione a saldo e stralcio .
-Il campo assume valore 1, se l’SNDG ha una Delibera di tipo Saldo e Stralcio (valori T2 e T3) in stato Confermato (CO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segnalazione a sofferenze (obbligato e non in qualità di garante) nella Centrale dei Rischi, se di importi congrui (IRIS FATAL). 
-Per la controparte oggetto delle valutazioni, per calcolare tale indicatore devono essere considerate le sofferenze su altri istituti del Sistema in ambito segnalazione centrale rischi. 
-L’indicatore è la Ratio Segnalazione a sofferenze dove:
-Numeratore: (importo a sofferenza SISTEMA – importo a sofferenza GRUPPO ISP)
-Denominatore: MAX(accordato operativo totale, utilizzato totale) 
-</t>
-  </si>
-  <si>
     <t>Inadempimenti rispetto agli obblighi di puntuale ed integrale pagamento relativamente ai titoli di debito emessi, siano essi quotati che non.
 Indicatore non calcolabile automaticamente, ma alimentato manualmente su applicativo di front-end deputato alla visualizzazione dei risultati.</t>
   </si>
@@ -463,18 +436,98 @@
   </si>
   <si>
     <t>RETAIL_IND_35</t>
+  </si>
+  <si>
+    <t>IND_02</t>
+  </si>
+  <si>
+    <t>IND_06</t>
+  </si>
+  <si>
+    <t>IND_07</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>RETAIL_EXPOSURE_REAL</t>
+  </si>
+  <si>
+    <t>RETAIL_EXPOSURE</t>
+  </si>
+  <si>
+    <t>Proposta di sistemazione delle esposizioni mediante soluzione a saldo e stralcio</t>
+  </si>
+  <si>
+    <t>Segnalazione a sofferenze (obbligato e non in qualità di garante) nella Centrale dei Rischi, se di importi congrui (IRIS FATAL). 
+Per la controparte oggetto delle valutazioni, per calcolare tale indicatore devono essere considerate le sofferenze su altri istituti del Sistema in ambito segnalazione centrale rischi.</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -570,38 +623,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +766,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98242</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,8 +824,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98242</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -816,8 +882,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98242</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -874,8 +940,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98242</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -932,8 +998,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>98242</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1039,7 +1105,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1097,7 +1163,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1155,7 +1221,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1213,7 +1279,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1271,7 +1337,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>28110</xdr:rowOff>
+      <xdr:rowOff>18585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1627,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,20 +1704,21 @@
     <col min="1" max="1" width="19.5703125"/>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625"/>
+    <col min="4" max="4" width="71.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.5703125"/>
-    <col min="6" max="6" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="1023" width="8.7109375"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="1022" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1667,8 +1734,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1697,32 +1765,35 @@
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
+      <c r="N2" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1738,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>13</v>
@@ -1749,25 +1820,28 @@
       <c r="M3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="B4" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6">
         <v>201</v>
@@ -1779,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>12</v>
@@ -1790,25 +1864,28 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>57</v>
+      <c r="B5" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -1820,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="10" t="b">
         <v>1</v>
@@ -1831,66 +1908,72 @@
       <c r="M5" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
+        <v>134</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="G6" s="6">
         <v>203</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>1</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8" t="b">
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="6">
         <v>204</v>
@@ -1902,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="10" t="b">
         <v>1</v>
@@ -1913,25 +1996,28 @@
       <c r="M7" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G8" s="6">
         <v>205</v>
@@ -1943,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="10" t="b">
         <v>1</v>
@@ -1954,25 +2040,28 @@
       <c r="M8" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6">
         <v>206</v>
@@ -1984,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="10" t="b">
         <v>1</v>
@@ -1995,25 +2084,28 @@
       <c r="M9" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6">
         <v>207</v>
@@ -2025,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="10" t="b">
         <v>1</v>
@@ -2036,25 +2128,28 @@
       <c r="M10" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="6">
         <v>208</v>
@@ -2063,39 +2158,42 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6">
         <v>209</v>
@@ -2104,39 +2202,42 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="K12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6">
         <v>210</v>
@@ -2148,466 +2249,546 @@
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="6">
+        <v>211</v>
+      </c>
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6">
+        <v>212</v>
+      </c>
+      <c r="H15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="6">
+        <v>213</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="6">
+        <v>214</v>
+      </c>
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6">
+        <v>215</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6">
+        <v>216</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="6">
+        <v>217</v>
+      </c>
+      <c r="H20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6">
+        <v>218</v>
+      </c>
+      <c r="H21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6">
+        <v>219</v>
+      </c>
+      <c r="H22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="K22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="6">
+        <v>220</v>
+      </c>
+      <c r="H23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="6">
         <v>221</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6">
-        <v>211</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="6">
-        <v>212</v>
-      </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="H24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="6">
-        <v>213</v>
-      </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="6">
-        <v>214</v>
-      </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="6">
-        <v>215</v>
-      </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="6">
-        <v>216</v>
-      </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="6">
-        <v>217</v>
-      </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="6">
-        <v>218</v>
-      </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="6">
-        <v>219</v>
-      </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="6">
-        <v>220</v>
-      </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="b">
+      <c r="G25" s="6">
+        <v>222</v>
+      </c>
+      <c r="H25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2621,11 +2802,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B24"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,13 +2854,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -2690,16 +2871,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2707,13 +2888,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -2724,16 +2905,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2741,13 +2922,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -2758,13 +2939,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>23</v>
@@ -2775,13 +2956,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>23</v>
@@ -2792,13 +2973,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -2809,16 +2990,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2826,16 +3007,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2843,13 +3024,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -2860,13 +3041,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>23</v>
@@ -2877,13 +3058,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>23</v>
@@ -2894,13 +3075,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>23</v>
@@ -2911,13 +3092,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>23</v>
@@ -2928,13 +3109,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>23</v>
@@ -2945,13 +3126,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
@@ -2962,13 +3143,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>23</v>
@@ -2979,16 +3160,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -2996,16 +3177,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -3013,13 +3194,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>23</v>
@@ -3030,15 +3211,32 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3055,7 +3253,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="389">
   <si>
     <t>Variable</t>
   </si>
@@ -467,18 +467,808 @@
   </si>
   <si>
     <t>IsCustomField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETAIL_IND_87 </t>
+  </si>
+  <si>
+    <t>RETAIL_IND_100</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_112</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_113</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_114</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_201</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_202</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_203</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_204</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_205</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_206</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_207</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_208</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_209</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_210</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_211</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_212</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_213</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_214</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_215</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_216</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_217</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_218</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_219</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_220</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_221</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_222</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_223</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_224</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_225</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_226</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_227</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_228</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_229</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_230</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_87 </t>
+  </si>
+  <si>
+    <t>IND_100</t>
+  </si>
+  <si>
+    <t>IND_112</t>
+  </si>
+  <si>
+    <t>IND_113</t>
+  </si>
+  <si>
+    <t>IND_114</t>
+  </si>
+  <si>
+    <t>IND_201</t>
+  </si>
+  <si>
+    <t>IND_202</t>
+  </si>
+  <si>
+    <t>IND_203</t>
+  </si>
+  <si>
+    <t>IND_204</t>
+  </si>
+  <si>
+    <t>IND_205</t>
+  </si>
+  <si>
+    <t>IND_206</t>
+  </si>
+  <si>
+    <t>IND_207</t>
+  </si>
+  <si>
+    <t>IND_208</t>
+  </si>
+  <si>
+    <t>IND_209</t>
+  </si>
+  <si>
+    <t>IND_210</t>
+  </si>
+  <si>
+    <t>IND_211</t>
+  </si>
+  <si>
+    <t>IND_212</t>
+  </si>
+  <si>
+    <t>IND_213</t>
+  </si>
+  <si>
+    <t>IND_214</t>
+  </si>
+  <si>
+    <t>IND_215</t>
+  </si>
+  <si>
+    <t>IND_216</t>
+  </si>
+  <si>
+    <t>IND_217</t>
+  </si>
+  <si>
+    <t>IND_218</t>
+  </si>
+  <si>
+    <t>IND_219</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>IND_226</t>
+  </si>
+  <si>
+    <t>IND_227</t>
+  </si>
+  <si>
+    <t>IND_228</t>
+  </si>
+  <si>
+    <t>IND_229</t>
+  </si>
+  <si>
+    <t>IND_230</t>
+  </si>
+  <si>
+    <t>IND_231</t>
+  </si>
+  <si>
+    <t>L'indicatore calcola la media su 90 giorni dell'importo dello sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore calcola la media su 90 giorni del numero di giorni di sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino. </t>
+  </si>
+  <si>
+    <t>L'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino. 
+In particolare l'indicatore assume valore:
+- "0" in presenza di uno sconfino nell'ultimo mese ; 
+- "1" in assenza di uno sconfino nell'ultimo mese e in presenza di uno sconfino fra i 60 e i 30 giorni antecedenti la data di elaborazione; 
+- "2"  in assenza di uno sconfino negli ultimi due mesi e in presenza di uno sconfino fra i 90 e i 60 giorni antecedenti la data di elaborazione.
+- "3" in assenza di uno sconfino negli ultimi 90 giorni.
+Partendo dalla data di elaborazione, i  flussi XRA dovranno essere suddivisi in 3 gruppi  (dalla data di valutazione fino a 30 giorni precedenti, da 31 giorni precedenti a 60 e da 61 giorni precedenti a 90) in modo da poter valutare la presenza di sconfini nei 3 mesi precedenti. 
+Per ciascun gruppo, la presenza di uno sconfino sarà stabilita valutando il numero massimo di giorni di sconfino: un massimo positivo indicherà la presenza di almeno uno sconfino nel mese, viceversa un massimo uguale a zero  (o missing) indicherà assenza di sconfini nel mese.
+Indicando con M1, M2, M3 i tre raggruppamenti (ove M3 corrisponde al mese più recente), e rappresentando la presenza (1) o assenza (0) di sconfino nei tre mesi con delle terne di 0 e 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le possibili valorizzazioni del flag sono 0 oppure 1.
+Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
+In tutte le restanti casistiche il flag dovrà essere uguale a 0.
+In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra: 
+- il rapporto fra sconfino per cassa e utilizzato per cassa e non, entrambi valutati alla data; 
+- il rapporto fra lo sconfino per cassa e utilizzato per cassa e non, entrambi valutati negli ultimi 90 giorni.  </t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo CR alzo zero.
+Assume 0, qualora gli indicatori con fonte "CR ad alzo zero" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "CR ad alzo zero" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo dell’ultimo mese e la tensione di utilizzo media del trimestre</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo AFI.
+Assume 0, qualora gli indicatori con fonte "AFI" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "AFI" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Media trimestrale del valore delle AFI calcolate escludendo lo sconfino su C/C</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo Bilancio Familiare.
+Assume 0, qualora gli indicatori con fonte "BILFAM" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "BILFAM" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale delle rate per finanziamenti e la media trimestrale degli stipendi/pensioni</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale delle rate e la media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale degli stipendi/pensioni</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>A partire dal mese più recente fra i 3 componenti il periodo di osservazione, l'indicatore conta il numero di mesi senza l’accredito dello stipendio
+L'accredito o meno dello stipendio viene verificato in ciascun mese, controllando se l'importo IMP_EA10_STIP_PE  arrotondato all'intero  risulta &gt; 0.</t>
+  </si>
+  <si>
+    <t>Le possibili valorizzazioni del flag sono 0 oppure 1 oppure missing.
+- FLAG_STIPENDIO_L3M = 0, se in ciascuno dei tre punti di osservazione considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere uguale a 0;
+- FLAG_STIPENDIO_L3M = 1, se in almeno un punto di osservazione fra i tre considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere maggiore di 0;
+- FLAG_STIPENDIO_L3M = missing, se in ciascuno dei tre punti di osservazione considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere missing;</t>
+  </si>
+  <si>
+    <t>Indicatore 52 - XRA_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 53 - XRA_MEAN_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 54 - XRA_NOSCONF_CONT_L3M </t>
+  </si>
+  <si>
+    <t>Indicatore 55 - XRA_30GG_100_002</t>
+  </si>
+  <si>
+    <t>Indicatore 60 - CR0 - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 61 - CR0_MC_BT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 62 - CR0_SCR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 63 - CR0_SCS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 64 - CR0_ITUT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 70 - AFI - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 71 - AFI_MEAN_NOSC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 80 - BILFAM - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 81 - BILFAM_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 82 - BILFAM_RAT_STIP_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 83 - BILFAM_RAT_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 84 - BILFAM_CART_STIP_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 85 - BILFAM_CART_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 86 - BILFAM_NO_STIP_CONT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 87 - BILFAM_STIPENDIO_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 100 - Semaforo notizie Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Indicatore 112 - Coefficiente rata arretrata per il prodotto "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>Indicatore 113 - Numero di giorni di scaduto delle rate arretrate per il prodotto "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>Indicatore 114 - Importo di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 per la controparte in presenza di una rata arretrata (Numero rate arretrate ≥ 1) , scaduta da oltre 31 giorni (Numero giorni di scaduto ≥  32).</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, l'importo di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In presenza di almeno una notizia pregiudizievole, l'indicatore restituisce un codice di colore in funzione della gravità della stessa. </t>
+  </si>
+  <si>
+    <t>Indicatore 201 - XRA_MEANMISS_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 202 - XRA_MAX_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 203 - XRA_MAX_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 204 - XRA_MEAN_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 205 - XRA_MEANMISS_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 206 - XRA_MAX_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 207 - XRA_NUM_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 208 - XRA_SCONF_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 209 - XRA_SCONF_UTI_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 210 - AFI_MEAN_NOSC_NEG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 211 - AFI_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 212 - CR0_MR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 213 - CR0_MS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 214 - CR0_MC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 215 - CR0_MT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 216 - CR0_SCC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 217 - CR0_SCT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 218 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>Indicatore 219 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>Indicatore 220 - CR0_TUC</t>
+  </si>
+  <si>
+    <t>Indicatore 221 - CR0_TUT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 222 - CR0_ITUR</t>
+  </si>
+  <si>
+    <t>Indicatore 223 - CR0_ITUS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 224 - CR0_ITUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 225 - BILFAM_TE_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 226 - BILFAM_TUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 227 - BILFAM_TU_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 228 - BILFAM_TUC_STIPBON_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 229 - BILFAM_TU_STIPBON_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 230 - BILFAM_SALC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 231 - BILFAM_SAL_L3M</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre dell'importo di sconfino per cassa, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Ultimo numero di giorni di sconfino per cassa continuativi.</t>
+  </si>
+  <si>
+    <t>Ultimo importo di sconfino per cassa</t>
+  </si>
+  <si>
+    <t>Ultimo rapporto disponibile tra sconfino per cassa e utilizzo totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale del valore delle AFI calcolate includendo eventuali sconfini di conto corrente </t>
+  </si>
+  <si>
+    <t>Media trimestrale degli sconfini di conto corrente se presenti altrimenti 0</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a revoca e la  media trimestrale dell'accordato a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la  media trimestrale dell'accordato a scadenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato per cassa e la  media trimestrale dell'accordato per cassa </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato su tutti i prodotti e la  media trimestrale dell'accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a revoca dell’ultimo mese e la tensione di utilizzo a revoca media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a scadenza dell’ultimo mese e la tensione di utilizzo a scadenza media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo per cassa dell’ultimo mese e la tensione di utilizzo per cassa media del trimestre</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale entrate</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale uscite correnti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale del totale uscite </t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale uscite correnti e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale uscite e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
+  </si>
+  <si>
+    <t>Media trimestrale del saldo corrente</t>
+  </si>
+  <si>
+    <t>Media trimestrale del saldo totale</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_106</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_107</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_108</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_109</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_110</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_111</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_115</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_116</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_117</t>
+  </si>
+  <si>
+    <t>IND_106</t>
+  </si>
+  <si>
+    <t>IND_107</t>
+  </si>
+  <si>
+    <t>IND_108</t>
+  </si>
+  <si>
+    <t>IND_109</t>
+  </si>
+  <si>
+    <t>IND_110</t>
+  </si>
+  <si>
+    <t>IND_111</t>
+  </si>
+  <si>
+    <t>IND_115</t>
+  </si>
+  <si>
+    <t>IND_116</t>
+  </si>
+  <si>
+    <t>IND_117</t>
+  </si>
+  <si>
+    <t>Indicatore 106 - Coefficiente rata arretrata per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 107 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 108 - Importo delle rate arretrate per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 109 - Coefficiente rata arretrata per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 110 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 111 - Importo delle rate arretrate per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 115 - Giorni di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>Indicatore 116 - Forborne sconfinato</t>
+  </si>
+  <si>
+    <t>Indicatore 117 - Importo forborne sconfinato</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, il numero di giorni di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata . 
+Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata, indipendentemente dalla motivazione dello sconfinamento e indipendentemente da eventuali autorizzazioni in validità, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore riporta l'importo del Forborne sconfinato. 
+Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata, indipendentemente dalla motivazione dello sconfinamento e indipendentemente da eventuali autorizzazioni in validità, </t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -623,51 +1413,83 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +1586,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87659</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1089062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -822,10 +1644,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87659</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1089062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -880,10 +1702,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87659</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1089062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -938,10 +1760,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87659</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1089062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -996,10 +1818,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87659</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1089062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1104,8 +1926,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1162,8 +1984,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1220,8 +2042,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1278,8 +2100,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1336,8 +2158,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1693,98 +2515,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C88" sqref="C78:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125"/>
-    <col min="6" max="6" width="81.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="1022" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1793,42 +2615,42 @@
       <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="14">
         <v>200</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="L3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1837,92 +2659,92 @@
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="14">
         <v>201</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
+      <c r="L4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="N4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="14">
         <v>202</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="b">
+      <c r="H5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="10" t="b">
+      <c r="K5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E6" t="s">
@@ -1931,36 +2753,36 @@
       <c r="F6" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="14">
         <v>203</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
+      <c r="L6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C7" t="s">
@@ -1969,42 +2791,42 @@
       <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="14">
         <v>204</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="b">
+      <c r="H7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="10" t="b">
+      <c r="K7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="L7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C8" t="s">
@@ -2019,36 +2841,36 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="14">
         <v>205</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="b">
+      <c r="H8" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="10" t="b">
+      <c r="K8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="L8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C9" t="s">
@@ -2063,42 +2885,42 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="14">
         <v>206</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="b">
+      <c r="H9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="10" t="b">
+      <c r="K9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="L9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -2107,42 +2929,42 @@
       <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="14">
         <v>207</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="b">
+      <c r="H10" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="10" t="b">
+      <c r="K10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="L10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="E11" t="s">
@@ -2151,42 +2973,42 @@
       <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="14">
         <v>208</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="b">
+      <c r="H11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="10" t="b">
+      <c r="K11" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="L11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E12" t="s">
@@ -2195,36 +3017,36 @@
       <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="14">
         <v>209</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="K12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C13" t="s">
@@ -2239,36 +3061,36 @@
       <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="14">
         <v>210</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="b">
+      <c r="H13" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="10" t="b">
+      <c r="K13" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="L13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C14" t="s">
@@ -2283,36 +3105,36 @@
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="14">
         <v>211</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="b">
+      <c r="H14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="10" t="b">
+      <c r="K14" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="L14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C15" t="s">
@@ -2327,36 +3149,36 @@
       <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="14">
         <v>212</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="b">
+      <c r="H15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="10" t="b">
+      <c r="K15" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="L15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C16" t="s">
@@ -2371,36 +3193,36 @@
       <c r="F16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="14">
         <v>213</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="b">
+      <c r="H16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="10" t="b">
+      <c r="K16" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="L16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C17" t="s">
@@ -2415,36 +3237,36 @@
       <c r="F17" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="14">
         <v>214</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="b">
+      <c r="H17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="10" t="b">
+      <c r="K17" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="L17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C18" t="s">
@@ -2459,36 +3281,36 @@
       <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="14">
         <v>215</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="b">
+      <c r="H18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="10" t="b">
+      <c r="K18" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="L18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C19" t="s">
@@ -2503,36 +3325,36 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="14">
         <v>216</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="b">
+      <c r="H19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="10" t="b">
+      <c r="K19" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="L19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C20" t="s">
@@ -2547,36 +3369,36 @@
       <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="14">
         <v>217</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="b">
+      <c r="H20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="10" t="b">
+      <c r="K20" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="L20" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C21" t="s">
@@ -2591,36 +3413,36 @@
       <c r="F21" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="14">
         <v>218</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="b">
+      <c r="H21" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="10" t="b">
+      <c r="K21" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="L21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C22" t="s">
@@ -2635,36 +3457,36 @@
       <c r="F22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="14">
         <v>219</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="K22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C23" t="s">
@@ -2679,36 +3501,36 @@
       <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="14">
         <v>220</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5" t="b">
+      <c r="H23" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="10" t="b">
+      <c r="K23" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="L23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C24" t="s">
@@ -2723,36 +3545,36 @@
       <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="14">
         <v>221</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5" t="b">
+      <c r="H24" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="10" t="b">
+      <c r="K24" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="L24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C25" t="s">
@@ -2767,28 +3589,2800 @@
       <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="14">
         <v>222</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="b">
+      <c r="H25" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="10" t="b">
+      <c r="K25" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="23" t="b">
+      <c r="L25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="14">
+        <v>225</v>
+      </c>
+      <c r="H26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="14">
+        <v>226</v>
+      </c>
+      <c r="H27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="14">
+        <v>227</v>
+      </c>
+      <c r="H28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="14">
+        <v>228</v>
+      </c>
+      <c r="H29" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" s="14">
+        <v>229</v>
+      </c>
+      <c r="H30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="14">
+        <v>230</v>
+      </c>
+      <c r="H31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="14">
+        <v>231</v>
+      </c>
+      <c r="H32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="14">
+        <v>232</v>
+      </c>
+      <c r="H33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" s="14">
+        <v>233</v>
+      </c>
+      <c r="H34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" s="14">
+        <v>234</v>
+      </c>
+      <c r="H35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="14">
+        <v>235</v>
+      </c>
+      <c r="H36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="14">
+        <v>236</v>
+      </c>
+      <c r="H37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" s="14">
+        <v>237</v>
+      </c>
+      <c r="H38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="14">
+        <v>238</v>
+      </c>
+      <c r="H39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="14">
+        <v>239</v>
+      </c>
+      <c r="H40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="14">
+        <v>240</v>
+      </c>
+      <c r="H41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="14">
+        <v>241</v>
+      </c>
+      <c r="H42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="14">
+        <v>242</v>
+      </c>
+      <c r="H43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="14">
+        <v>243</v>
+      </c>
+      <c r="H44" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="14">
+        <v>244</v>
+      </c>
+      <c r="H45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" s="14">
+        <v>248</v>
+      </c>
+      <c r="H46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="14">
+        <v>249</v>
+      </c>
+      <c r="H47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" t="s">
+        <v>292</v>
+      </c>
+      <c r="G48" s="14">
+        <v>250</v>
+      </c>
+      <c r="H48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" s="14">
+        <v>251</v>
+      </c>
+      <c r="H49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" s="14">
+        <v>252</v>
+      </c>
+      <c r="H50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" s="14">
+        <v>253</v>
+      </c>
+      <c r="H51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>327</v>
+      </c>
+      <c r="E52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="14">
+        <v>254</v>
+      </c>
+      <c r="H52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="14">
+        <v>255</v>
+      </c>
+      <c r="H53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
+      </c>
+      <c r="G54" s="14">
+        <v>256</v>
+      </c>
+      <c r="H54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>299</v>
+      </c>
+      <c r="G55" s="14">
+        <v>257</v>
+      </c>
+      <c r="H55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>331</v>
+      </c>
+      <c r="E56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" s="14">
+        <v>258</v>
+      </c>
+      <c r="H56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="14">
+        <v>259</v>
+      </c>
+      <c r="H57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>333</v>
+      </c>
+      <c r="E58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="14">
+        <v>260</v>
+      </c>
+      <c r="H58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="14">
+        <v>261</v>
+      </c>
+      <c r="H59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="14">
+        <v>262</v>
+      </c>
+      <c r="H60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>336</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="14">
+        <v>263</v>
+      </c>
+      <c r="H61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>337</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="14">
+        <v>264</v>
+      </c>
+      <c r="H62" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" t="s">
+        <v>307</v>
+      </c>
+      <c r="G63" s="14">
+        <v>265</v>
+      </c>
+      <c r="H63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E64" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="14">
+        <v>266</v>
+      </c>
+      <c r="H64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>340</v>
+      </c>
+      <c r="E65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="14">
+        <v>267</v>
+      </c>
+      <c r="H65" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" t="s">
+        <v>341</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" t="s">
+        <v>310</v>
+      </c>
+      <c r="G66" s="14">
+        <v>268</v>
+      </c>
+      <c r="H66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" t="s">
+        <v>311</v>
+      </c>
+      <c r="G67" s="14">
+        <v>269</v>
+      </c>
+      <c r="H67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" t="s">
+        <v>312</v>
+      </c>
+      <c r="G68" s="14">
+        <v>270</v>
+      </c>
+      <c r="H68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" t="s">
+        <v>313</v>
+      </c>
+      <c r="G69" s="14">
+        <v>271</v>
+      </c>
+      <c r="H69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="14">
+        <v>272</v>
+      </c>
+      <c r="H70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" t="s">
+        <v>315</v>
+      </c>
+      <c r="G71" s="14">
+        <v>273</v>
+      </c>
+      <c r="H71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" s="14">
+        <v>274</v>
+      </c>
+      <c r="H72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>348</v>
+      </c>
+      <c r="E73" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" s="14">
+        <v>275</v>
+      </c>
+      <c r="H73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>349</v>
+      </c>
+      <c r="E74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F74" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74" s="14">
+        <v>276</v>
+      </c>
+      <c r="H74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" t="s">
+        <v>319</v>
+      </c>
+      <c r="G75" s="14">
+        <v>277</v>
+      </c>
+      <c r="H75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" s="14">
+        <v>278</v>
+      </c>
+      <c r="H76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>352</v>
+      </c>
+      <c r="E77" t="s">
+        <v>245</v>
+      </c>
+      <c r="F77" t="s">
+        <v>321</v>
+      </c>
+      <c r="G77" s="14">
+        <v>279</v>
+      </c>
+      <c r="H77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" t="s">
+        <v>353</v>
+      </c>
+      <c r="D78" t="s">
+        <v>383</v>
+      </c>
+      <c r="E78" t="s">
+        <v>362</v>
+      </c>
+      <c r="F78" t="s">
+        <v>371</v>
+      </c>
+      <c r="G78" s="14">
+        <v>280</v>
+      </c>
+      <c r="H78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
+        <v>384</v>
+      </c>
+      <c r="E79" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79" t="s">
+        <v>372</v>
+      </c>
+      <c r="G79" s="14">
+        <v>281</v>
+      </c>
+      <c r="H79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="D80" t="s">
+        <v>385</v>
+      </c>
+      <c r="E80" t="s">
+        <v>364</v>
+      </c>
+      <c r="F80" t="s">
+        <v>373</v>
+      </c>
+      <c r="G80" s="14">
+        <v>282</v>
+      </c>
+      <c r="H80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" t="s">
+        <v>365</v>
+      </c>
+      <c r="F81" t="s">
+        <v>374</v>
+      </c>
+      <c r="G81" s="14">
+        <v>283</v>
+      </c>
+      <c r="H81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" t="s">
+        <v>357</v>
+      </c>
+      <c r="D82" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" t="s">
+        <v>366</v>
+      </c>
+      <c r="F82" t="s">
+        <v>375</v>
+      </c>
+      <c r="G82" s="14">
+        <v>284</v>
+      </c>
+      <c r="H82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" t="s">
+        <v>358</v>
+      </c>
+      <c r="D83" t="s">
+        <v>388</v>
+      </c>
+      <c r="E83" t="s">
+        <v>367</v>
+      </c>
+      <c r="F83" t="s">
+        <v>376</v>
+      </c>
+      <c r="G83" s="14">
+        <v>285</v>
+      </c>
+      <c r="H83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" s="14">
+        <v>286</v>
+      </c>
+      <c r="H84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>286</v>
+      </c>
+      <c r="G85" s="14">
+        <v>287</v>
+      </c>
+      <c r="H85" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K85" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" t="s">
+        <v>368</v>
+      </c>
+      <c r="F86" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="14">
+        <v>288</v>
+      </c>
+      <c r="H86" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" t="s">
+        <v>369</v>
+      </c>
+      <c r="F87" t="s">
+        <v>378</v>
+      </c>
+      <c r="G87" s="14">
+        <v>289</v>
+      </c>
+      <c r="H87" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>382</v>
+      </c>
+      <c r="E88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G88" s="14">
+        <v>290</v>
+      </c>
+      <c r="H88" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2802,11 +6396,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,7 +6409,7 @@
     <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
@@ -2827,7 +6421,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2845,7 +6439,7 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2862,7 +6456,7 @@
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2879,7 +6473,7 @@
       <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2896,11 +6490,11 @@
       <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2913,11 +6507,11 @@
       <c r="E6" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2930,11 +6524,11 @@
       <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2947,11 +6541,11 @@
       <c r="E8" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2964,11 +6558,11 @@
       <c r="E9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2981,11 +6575,11 @@
       <c r="E10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2998,11 +6592,11 @@
       <c r="E11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3015,11 +6609,11 @@
       <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3032,11 +6626,11 @@
       <c r="E13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3049,11 +6643,11 @@
       <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3066,11 +6660,11 @@
       <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3083,11 +6677,11 @@
       <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3100,11 +6694,11 @@
       <c r="E17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3117,11 +6711,11 @@
       <c r="E18" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3134,11 +6728,11 @@
       <c r="E19" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3151,11 +6745,11 @@
       <c r="E20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3168,11 +6762,11 @@
       <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -3185,11 +6779,11 @@
       <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3202,11 +6796,11 @@
       <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3219,11 +6813,11 @@
       <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3236,8 +6830,1079 @@
       <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="28" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" t="s">
+        <v>353</v>
+      </c>
+      <c r="E78" t="s">
+        <v>353</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79" t="s">
+        <v>354</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>355</v>
+      </c>
+      <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="E80" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" t="s">
+        <v>357</v>
+      </c>
+      <c r="E82" t="s">
+        <v>357</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" t="s">
+        <v>358</v>
+      </c>
+      <c r="E83" t="s">
+        <v>358</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" t="s">
+        <v>359</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>360</v>
+      </c>
+      <c r="C87" t="s">
+        <v>360</v>
+      </c>
+      <c r="E87" t="s">
+        <v>360</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" t="s">
+        <v>361</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$5</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="382">
   <si>
     <t>Variable</t>
   </si>
@@ -529,12 +529,6 @@
     <t>RETAIL_IND_100</t>
   </si>
   <si>
-    <t>RETAIL_IND_112</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_113</t>
-  </si>
-  <si>
     <t>RETAIL_IND_114</t>
   </si>
   <si>
@@ -691,12 +685,6 @@
     <t>IND_100</t>
   </si>
   <si>
-    <t>IND_112</t>
-  </si>
-  <si>
-    <t>IND_113</t>
-  </si>
-  <si>
     <t>IND_114</t>
   </si>
   <si>
@@ -799,463 +787,447 @@
     <t xml:space="preserve">L'indicatore calcola la media su 90 giorni del numero di giorni di sconfino per cassa, calcolata considerando solo i giorni per cui si rileva uno sconfino. </t>
   </si>
   <si>
-    <t>L'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino. 
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo CR alzo zero.
+Assume 0, qualora gli indicatori con fonte "CR ad alzo zero" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "CR ad alzo zero" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa a breve termine</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo dell’ultimo mese e la tensione di utilizzo media del trimestre</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo AFI.
+Assume 0, qualora gli indicatori con fonte "AFI" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "AFI" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Media trimestrale del valore delle AFI calcolate escludendo lo sconfino su C/C</t>
+  </si>
+  <si>
+    <t>L'indicatore sintetizza la presenza di informazioni per il modulo Bilancio Familiare.
+Assume 0, qualora gli indicatori con fonte "BILFAM" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "BILFAM" con valorizzazione diversa da missing.</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale delle rate per finanziamenti e la media trimestrale degli stipendi/pensioni</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale delle rate e la media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale degli stipendi/pensioni</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale del totale entrate correnti</t>
+  </si>
+  <si>
+    <t>A partire dal mese più recente fra i 3 componenti il periodo di osservazione, l'indicatore conta il numero di mesi senza l’accredito dello stipendio
+L'accredito o meno dello stipendio viene verificato in ciascun mese, controllando se l'importo IMP_EA10_STIP_PE  arrotondato all'intero  risulta &gt; 0.</t>
+  </si>
+  <si>
+    <t>Indicatore 52 - XRA_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 53 - XRA_MEAN_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicatore 54 - XRA_NOSCONF_CONT_L3M </t>
+  </si>
+  <si>
+    <t>Indicatore 55 - XRA_30GG_100_002</t>
+  </si>
+  <si>
+    <t>Indicatore 60 - CR0 - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 61 - CR0_MC_BT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 62 - CR0_SCR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 63 - CR0_SCS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 64 - CR0_ITUT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 70 - AFI - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 71 - AFI_MEAN_NOSC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 80 - BILFAM - PRESENZA DI INFO</t>
+  </si>
+  <si>
+    <t>Indicatore 81 - BILFAM_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 82 - BILFAM_RAT_STIP_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 83 - BILFAM_RAT_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 84 - BILFAM_CART_STIP_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 85 - BILFAM_CART_TEC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 86 - BILFAM_NO_STIP_CONT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 87 - BILFAM_STIPENDIO_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 100 - Semaforo notizie Pregiudizievoli</t>
+  </si>
+  <si>
+    <t>Indicatore 114 - Importo di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, l'importo di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In presenza di almeno una notizia pregiudizievole, l'indicatore restituisce un codice di colore in funzione della gravità della stessa. </t>
+  </si>
+  <si>
+    <t>Indicatore 201 - XRA_MEANMISS_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 202 - XRA_MAX_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 203 - XRA_MAX_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 204 - XRA_MEAN_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 205 - XRA_MEANMISS_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 206 - XRA_MAX_SCONF_UTI_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 207 - XRA_NUM_GG_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 208 - XRA_SCONF_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 209 - XRA_SCONF_UTI_L1M</t>
+  </si>
+  <si>
+    <t>Indicatore 210 - AFI_MEAN_NOSC_NEG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 211 - AFI_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 212 - CR0_MR_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 213 - CR0_MS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 214 - CR0_MC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 215 - CR0_MT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 216 - CR0_SCC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 217 - CR0_SCT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 218 - CR0_TUR</t>
+  </si>
+  <si>
+    <t>Indicatore 219 - CR0_TUS</t>
+  </si>
+  <si>
+    <t>Indicatore 220 - CR0_TUC</t>
+  </si>
+  <si>
+    <t>Indicatore 221 - CR0_TUT_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 222 - CR0_ITUR</t>
+  </si>
+  <si>
+    <t>Indicatore 223 - CR0_ITUS_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 224 - CR0_ITUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 225 - BILFAM_TE_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 226 - BILFAM_TUC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 227 - BILFAM_TU_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 228 - BILFAM_TUC_STIPBON_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 229 - BILFAM_TU_STIPBON_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 230 - BILFAM_SALC_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 231 - BILFAM_SAL_L3M</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre dell'importo di sconfino per cassa, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Massimo sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Ultimo numero di giorni di sconfino per cassa continuativi.</t>
+  </si>
+  <si>
+    <t>Ultimo importo di sconfino per cassa</t>
+  </si>
+  <si>
+    <t>Ultimo rapporto disponibile tra sconfino per cassa e utilizzo totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale del valore delle AFI calcolate includendo eventuali sconfini di conto corrente </t>
+  </si>
+  <si>
+    <t>Media trimestrale degli sconfini di conto corrente se presenti altrimenti 0</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a scadenza</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti per cassa</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a revoca e la  media trimestrale dell'accordato a revoca</t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la  media trimestrale dell'accordato a scadenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato per cassa e la  media trimestrale dell'accordato per cassa </t>
+  </si>
+  <si>
+    <t>Rapporto fra la media trimestrale dell'utilizzato su tutti i prodotti e la  media trimestrale dell'accordato su tutti i prodotti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a revoca dell’ultimo mese e la tensione di utilizzo a revoca media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo a scadenza dell’ultimo mese e la tensione di utilizzo a scadenza media del trimestre</t>
+  </si>
+  <si>
+    <t>Rapporto tra la tensione di utilizzo per cassa dell’ultimo mese e la tensione di utilizzo per cassa media del trimestre</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale entrate</t>
+  </si>
+  <si>
+    <t>Media trimestrale del totale uscite correnti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media trimestrale del totale uscite </t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale uscite correnti e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
+  </si>
+  <si>
+    <t>Rapporto tra la media trimestrale del totale uscite e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
+  </si>
+  <si>
+    <t>Media trimestrale del saldo corrente</t>
+  </si>
+  <si>
+    <t>Media trimestrale del saldo totale</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_106</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_107</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_108</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_109</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_110</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_111</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_115</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_116</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_117</t>
+  </si>
+  <si>
+    <t>IND_106</t>
+  </si>
+  <si>
+    <t>IND_107</t>
+  </si>
+  <si>
+    <t>IND_108</t>
+  </si>
+  <si>
+    <t>IND_109</t>
+  </si>
+  <si>
+    <t>IND_110</t>
+  </si>
+  <si>
+    <t>IND_111</t>
+  </si>
+  <si>
+    <t>IND_115</t>
+  </si>
+  <si>
+    <t>IND_116</t>
+  </si>
+  <si>
+    <t>IND_117</t>
+  </si>
+  <si>
+    <t>Indicatore 106 - Coefficiente rata arretrata per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 107 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 108 - Importo delle rate arretrate per prodotti rateali su cc</t>
+  </si>
+  <si>
+    <t>Indicatore 109 - Coefficiente rata arretrata per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 110 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 111 - Importo delle rate arretrate per prodotti rateali con RID/MAV</t>
+  </si>
+  <si>
+    <t>Indicatore 115 - Giorni di sconfino di C/C</t>
+  </si>
+  <si>
+    <t>Indicatore 116 - Forborne sconfinato</t>
+  </si>
+  <si>
+    <t>Indicatore 117 - Importo forborne sconfinato</t>
+  </si>
+  <si>
+    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
+L'indicatore riporta, per la controparte oggetto di valutazione EW, il numero di giorni di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
+- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
+- Prodotti rateali con addebito con RID/MAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore riporta l'importo del Forborne sconfinato. 
+Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata, indipendentemente dalla motivazione </t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata . 
+Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata,</t>
+  </si>
+  <si>
+    <t>Le possibili valorizzazioni del flag sono 0 oppure 1 oppure missing.
+- FLAG_STIPENDIO_L3M = 0, se in ciascuno dei tre punti di osservazione considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere uguale a 0;
+- FLAG_STIPENDIO_L3M = 1, se in almeno un punto di osservazione fra i tre considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere maggiore di 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le possibili valorizzazioni del flag sono 0 oppure 1.
+Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
+In tutte le restanti casistiche il flag dovrà essere uguale a 0.
+In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino. 
 In particolare l'indicatore assume valore:
 - "0" in presenza di uno sconfino nell'ultimo mese ; 
 - "1" in assenza di uno sconfino nell'ultimo mese e in presenza di uno sconfino fra i 60 e i 30 giorni antecedenti la data di elaborazione; 
-- "2"  in assenza di uno sconfino negli ultimi due mesi e in presenza di uno sconfino fra i 90 e i 60 giorni antecedenti la data di elaborazione.
-- "3" in assenza di uno sconfino negli ultimi 90 giorni.
-Partendo dalla data di elaborazione, i  flussi XRA dovranno essere suddivisi in 3 gruppi  (dalla data di valutazione fino a 30 giorni precedenti, da 31 giorni precedenti a 60 e da 61 giorni precedenti a 90) in modo da poter valutare la presenza di sconfini nei 3 mesi precedenti. 
-Per ciascun gruppo, la presenza di uno sconfino sarà stabilita valutando il numero massimo di giorni di sconfino: un massimo positivo indicherà la presenza di almeno uno sconfino nel mese, viceversa un massimo uguale a zero  (o missing) indicherà assenza di sconfini nel mese.
-Indicando con M1, M2, M3 i tre raggruppamenti (ove M3 corrisponde al mese più recente), e rappresentando la presenza (1) o assenza (0) di sconfino nei tre mesi con delle terne di 0 e 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le possibili valorizzazioni del flag sono 0 oppure 1.
-Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
-In tutte le restanti casistiche il flag dovrà essere uguale a 0.
-In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra: 
-- il rapporto fra sconfino per cassa e utilizzato per cassa e non, entrambi valutati alla data; 
-- il rapporto fra lo sconfino per cassa e utilizzato per cassa e non, entrambi valutati negli ultimi 90 giorni.  </t>
-  </si>
-  <si>
-    <t>L'indicatore sintetizza la presenza di informazioni per il modulo CR alzo zero.
-Assume 0, qualora gli indicatori con fonte "CR ad alzo zero" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "CR ad alzo zero" con valorizzazione diversa da missing.</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa a breve termine</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a revoca</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti a scadenza</t>
-  </si>
-  <si>
-    <t>Rapporto tra la tensione di utilizzo dell’ultimo mese e la tensione di utilizzo media del trimestre</t>
-  </si>
-  <si>
-    <t>L'indicatore sintetizza la presenza di informazioni per il modulo AFI.
-Assume 0, qualora gli indicatori con fonte "AFI" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "AFI" con valorizzazione diversa da missing.</t>
-  </si>
-  <si>
-    <t>Media trimestrale del valore delle AFI calcolate escludendo lo sconfino su C/C</t>
-  </si>
-  <si>
-    <t>L'indicatore sintetizza la presenza di informazioni per il modulo Bilancio Familiare.
-Assume 0, qualora gli indicatori con fonte "BILFAM" dovessero risultare tutti missing o 1 in presenza di almeno un indicatore con fonte "BILFAM" con valorizzazione diversa da missing.</t>
-  </si>
-  <si>
-    <t>Media trimestrale del totale entrate correnti</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale delle rate per finanziamenti e la media trimestrale degli stipendi/pensioni</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale delle rate e la media trimestrale del totale entrate correnti</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale degli stipendi/pensioni</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del totale pagamenti con carta di credito e la media trimestrale del totale entrate correnti</t>
-  </si>
-  <si>
-    <t>A partire dal mese più recente fra i 3 componenti il periodo di osservazione, l'indicatore conta il numero di mesi senza l’accredito dello stipendio
-L'accredito o meno dello stipendio viene verificato in ciascun mese, controllando se l'importo IMP_EA10_STIP_PE  arrotondato all'intero  risulta &gt; 0.</t>
-  </si>
-  <si>
-    <t>Le possibili valorizzazioni del flag sono 0 oppure 1 oppure missing.
-- FLAG_STIPENDIO_L3M = 0, se in ciascuno dei tre punti di osservazione considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere uguale a 0;
-- FLAG_STIPENDIO_L3M = 1, se in almeno un punto di osservazione fra i tre considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere maggiore di 0;
-- FLAG_STIPENDIO_L3M = missing, se in ciascuno dei tre punti di osservazione considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere missing;</t>
-  </si>
-  <si>
-    <t>Indicatore 52 - XRA_MEAN_SCONF_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 53 - XRA_MEAN_NUM_GG_L3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicatore 54 - XRA_NOSCONF_CONT_L3M </t>
-  </si>
-  <si>
-    <t>Indicatore 55 - XRA_30GG_100_002</t>
-  </si>
-  <si>
-    <t>Indicatore 60 - CR0 - PRESENZA DI INFO</t>
-  </si>
-  <si>
-    <t>Indicatore 61 - CR0_MC_BT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 62 - CR0_SCR_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 63 - CR0_SCS_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 64 - CR0_ITUT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 70 - AFI - PRESENZA DI INFO</t>
-  </si>
-  <si>
-    <t>Indicatore 71 - AFI_MEAN_NOSC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 80 - BILFAM - PRESENZA DI INFO</t>
-  </si>
-  <si>
-    <t>Indicatore 81 - BILFAM_TEC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 82 - BILFAM_RAT_STIP_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 83 - BILFAM_RAT_TEC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 84 - BILFAM_CART_STIP_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 85 - BILFAM_CART_TEC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 86 - BILFAM_NO_STIP_CONT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 87 - BILFAM_STIPENDIO_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 100 - Semaforo notizie Pregiudizievoli</t>
-  </si>
-  <si>
-    <t>Indicatore 112 - Coefficiente rata arretrata per il prodotto "cessione del quinto"</t>
-  </si>
-  <si>
-    <t>Indicatore 113 - Numero di giorni di scaduto delle rate arretrate per il prodotto "cessione del quinto"</t>
-  </si>
-  <si>
-    <t>Indicatore 114 - Importo di sconfino di C/C</t>
-  </si>
-  <si>
-    <t>L'indicatore assume valore 1 per la controparte in presenza di una rata arretrata (Numero rate arretrate ≥ 1) , scaduta da oltre 31 giorni (Numero giorni di scaduto ≥  32).</t>
-  </si>
-  <si>
-    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
-L'indicatore riporta, per la controparte oggetto di valutazione EW, l'importo di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In presenza di almeno una notizia pregiudizievole, l'indicatore restituisce un codice di colore in funzione della gravità della stessa. </t>
-  </si>
-  <si>
-    <t>Indicatore 201 - XRA_MEANMISS_NUM_GG_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 202 - XRA_MAX_SCONF_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 203 - XRA_MAX_NUM_GG_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 204 - XRA_MEAN_SCONF_UTI_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 205 - XRA_MEANMISS_SCONF_UTI_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 206 - XRA_MAX_SCONF_UTI_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 207 - XRA_NUM_GG_L1M</t>
-  </si>
-  <si>
-    <t>Indicatore 208 - XRA_SCONF_L1M</t>
-  </si>
-  <si>
-    <t>Indicatore 209 - XRA_SCONF_UTI_L1M</t>
-  </si>
-  <si>
-    <t>Indicatore 210 - AFI_MEAN_NOSC_NEG_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 211 - AFI_MEAN_SCONF_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 212 - CR0_MR_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 213 - CR0_MS_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 214 - CR0_MC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 215 - CR0_MT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 216 - CR0_SCC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 217 - CR0_SCT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 218 - CR0_TUR</t>
-  </si>
-  <si>
-    <t>Indicatore 219 - CR0_TUS</t>
-  </si>
-  <si>
-    <t>Indicatore 220 - CR0_TUC</t>
-  </si>
-  <si>
-    <t>Indicatore 221 - CR0_TUT_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 222 - CR0_ITUR</t>
-  </si>
-  <si>
-    <t>Indicatore 223 - CR0_ITUS_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 224 - CR0_ITUC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 225 - BILFAM_TE_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 226 - BILFAM_TUC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 227 - BILFAM_TU_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 228 - BILFAM_TUC_STIPBON_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 229 - BILFAM_TU_STIPBON_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 230 - BILFAM_SALC_L3M</t>
-  </si>
-  <si>
-    <t>Indicatore 231 - BILFAM_SAL_L3M</t>
-  </si>
-  <si>
-    <t>Media sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Massimo sul trimestre dell'importo di sconfino per cassa, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Massimo sul trimestre del numero di giorni di sconfino per cassa continuativi, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando solo le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Media sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Massimo sul trimestre del rapporto tra sconfino per cassa e utilizzo totale, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Ultimo numero di giorni di sconfino per cassa continuativi.</t>
-  </si>
-  <si>
-    <t>Ultimo importo di sconfino per cassa</t>
-  </si>
-  <si>
-    <t>Ultimo rapporto disponibile tra sconfino per cassa e utilizzo totale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media trimestrale del valore delle AFI calcolate includendo eventuali sconfini di conto corrente </t>
-  </si>
-  <si>
-    <t>Media trimestrale degli sconfini di conto corrente se presenti altrimenti 0</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a revoca</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti a scadenza</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su prodotti per cassa</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del margine e la media trimestrale dell’accordato su tutti i prodotti</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su prodotti per cassa</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale dello sconfino e la media trimestrale dell’accordato su tutti i prodotti</t>
-  </si>
-  <si>
-    <t>Rapporto fra la media trimestrale dell'utilizzato a revoca e la  media trimestrale dell'accordato a revoca</t>
-  </si>
-  <si>
-    <t>Rapporto fra la media trimestrale dell'utilizzato a scadenza e la  media trimestrale dell'accordato a scadenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapporto fra la media trimestrale dell'utilizzato per cassa e la  media trimestrale dell'accordato per cassa </t>
-  </si>
-  <si>
-    <t>Rapporto fra la media trimestrale dell'utilizzato su tutti i prodotti e la  media trimestrale dell'accordato su tutti i prodotti</t>
-  </si>
-  <si>
-    <t>Rapporto tra la tensione di utilizzo a revoca dell’ultimo mese e la tensione di utilizzo a revoca media del trimestre</t>
-  </si>
-  <si>
-    <t>Rapporto tra la tensione di utilizzo a scadenza dell’ultimo mese e la tensione di utilizzo a scadenza media del trimestre</t>
-  </si>
-  <si>
-    <t>Rapporto tra la tensione di utilizzo per cassa dell’ultimo mese e la tensione di utilizzo per cassa media del trimestre</t>
-  </si>
-  <si>
-    <t>Media trimestrale del totale entrate</t>
-  </si>
-  <si>
-    <t>Media trimestrale del totale uscite correnti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media trimestrale del totale uscite </t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del totale uscite correnti e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
-  </si>
-  <si>
-    <t>Rapporto tra la media trimestrale del totale uscite e la media trimestrale della somma tra stipendi/pensioni e bonifici/giroconti</t>
-  </si>
-  <si>
-    <t>Media trimestrale del saldo corrente</t>
-  </si>
-  <si>
-    <t>Media trimestrale del saldo totale</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_106</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_107</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_108</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_109</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_110</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_111</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_115</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_116</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_117</t>
-  </si>
-  <si>
-    <t>IND_106</t>
-  </si>
-  <si>
-    <t>IND_107</t>
-  </si>
-  <si>
-    <t>IND_108</t>
-  </si>
-  <si>
-    <t>IND_109</t>
-  </si>
-  <si>
-    <t>IND_110</t>
-  </si>
-  <si>
-    <t>IND_111</t>
-  </si>
-  <si>
-    <t>IND_115</t>
-  </si>
-  <si>
-    <t>IND_116</t>
-  </si>
-  <si>
-    <t>IND_117</t>
-  </si>
-  <si>
-    <t>Indicatore 106 - Coefficiente rata arretrata per prodotti rateali su cc</t>
-  </si>
-  <si>
-    <t>Indicatore 107 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali su cc</t>
-  </si>
-  <si>
-    <t>Indicatore 108 - Importo delle rate arretrate per prodotti rateali su cc</t>
-  </si>
-  <si>
-    <t>Indicatore 109 - Coefficiente rata arretrata per prodotti rateali con RID/MAV</t>
-  </si>
-  <si>
-    <t>Indicatore 110 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali con RID/MAV</t>
-  </si>
-  <si>
-    <t>Indicatore 111 - Importo delle rate arretrate per prodotti rateali con RID/MAV</t>
-  </si>
-  <si>
-    <t>Indicatore 115 - Giorni di sconfino di C/C</t>
-  </si>
-  <si>
-    <t>Indicatore 116 - Forborne sconfinato</t>
-  </si>
-  <si>
-    <t>Indicatore 117 - Importo forborne sconfinato</t>
-  </si>
-  <si>
-    <t>Si richiede di intercettare lo sconfino di conto corrente con o senza linea accordata (incluse le carte di credito in quanto provocano sconfino su conto corrente).
-L'indicatore riporta, per la controparte oggetto di valutazione EW, il numero di giorni di sconfino di conto corrente con esclusione degli sconfini oggetto di autorizzazione in autor/gecen sino alla validità di quest’ultima.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'indicatore assume valore 1 in presenza di un Forborne sconfinato per la controparte SNDG analizzata . 
-Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata, indipendentemente dalla motivazione dello sconfinamento e indipendentemente da eventuali autorizzazioni in validità, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'indicatore riporta l'importo del Forborne sconfinato. 
-Le posizioni targate Forborne e aventi come stato interno del motore For lo stato ‘Performing da non performing’ dovranno essere intercettate dopo 2 giorni dalla rilevazione dello sconfinamento ( se trattasi di rapporto che prevede l’addebito con RID lo sconfino sarà rilevabile indicativamente dopo 5/7 gg ) sulla linea targata, indipendentemente dalla motivazione dello sconfinamento e indipendentemente da eventuali autorizzazioni in validità, </t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
-- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
-- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
-- Prodotti rateali con addebito diretto su c/c Banca (ISP o CLONE)</t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il coefficiente della rata arretrata per i: 
-- Prodotti rateali con addebito con RID/MAV</t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, il numero di giorni di scaduto per la rata arretrata per i: 
-- Prodotti rateali con addebito con RID/MAV</t>
-  </si>
-  <si>
-    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, in presenza di una una rata arretrata, l'importo delle rate arretrate per i: 
-- Prodotti rateali con addebito con RID/MAV</t>
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1588,7 +1560,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1646,7 +1618,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1704,7 +1676,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1762,7 +1734,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1820,7 +1792,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>51940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2515,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="B63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C78:C88"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,7 +2509,7 @@
     <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1022" width="8.7109375"/>
+    <col min="15" max="1021" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -3625,16 +3597,16 @@
         <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G26" s="14">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H26" s="20" t="b">
         <v>0</v>
@@ -3669,16 +3641,16 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G27" s="14">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H27" s="20" t="b">
         <v>0</v>
@@ -3702,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
@@ -3712,17 +3684,17 @@
       <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" t="s">
-        <v>248</v>
+      <c r="D28" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G28" s="14">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H28" s="20" t="b">
         <v>0</v>
@@ -3746,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
@@ -3756,17 +3728,17 @@
       <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" t="s">
-        <v>249</v>
+      <c r="D29" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G29" s="14">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H29" s="20" t="b">
         <v>0</v>
@@ -3801,16 +3773,16 @@
         <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G30" s="14">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H30" s="20" t="b">
         <v>0</v>
@@ -3845,16 +3817,16 @@
         <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G31" s="14">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H31" s="20" t="b">
         <v>0</v>
@@ -3889,16 +3861,16 @@
         <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G32" s="14">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H32" s="20" t="b">
         <v>0</v>
@@ -3933,16 +3905,16 @@
         <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G33" s="14">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H33" s="20" t="b">
         <v>0</v>
@@ -3977,16 +3949,16 @@
         <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G34" s="14">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H34" s="20" t="b">
         <v>0</v>
@@ -4021,16 +3993,16 @@
         <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G35" s="14">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H35" s="20" t="b">
         <v>0</v>
@@ -4065,16 +4037,16 @@
         <v>148</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G36" s="14">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H36" s="20" t="b">
         <v>0</v>
@@ -4109,16 +4081,16 @@
         <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G37" s="14">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H37" s="20" t="b">
         <v>0</v>
@@ -4153,16 +4125,16 @@
         <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G38" s="14">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H38" s="20" t="b">
         <v>0</v>
@@ -4197,16 +4169,16 @@
         <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G39" s="14">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H39" s="20" t="b">
         <v>0</v>
@@ -4241,16 +4213,16 @@
         <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G40" s="14">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H40" s="20" t="b">
         <v>0</v>
@@ -4285,16 +4257,16 @@
         <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G41" s="14">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H41" s="20" t="b">
         <v>0</v>
@@ -4329,16 +4301,16 @@
         <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G42" s="14">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H42" s="20" t="b">
         <v>0</v>
@@ -4373,16 +4345,16 @@
         <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G43" s="14">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H43" s="20" t="b">
         <v>0</v>
@@ -4406,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>11</v>
       </c>
@@ -4416,17 +4388,17 @@
       <c r="C44" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
-        <v>264</v>
+      <c r="D44" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G44" s="14">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H44" s="20" t="b">
         <v>0</v>
@@ -4461,16 +4433,16 @@
         <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G45" s="14">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H45" s="20" t="b">
         <v>0</v>
@@ -4499,22 +4471,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G46" s="14">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H46" s="20" t="b">
         <v>0</v>
@@ -4543,22 +4515,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G47" s="14">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H47" s="20" t="b">
         <v>0</v>
@@ -4587,22 +4559,22 @@
         <v>11</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G48" s="14">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H48" s="20" t="b">
         <v>0</v>
@@ -4631,22 +4603,22 @@
         <v>11</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G49" s="14">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H49" s="20" t="b">
         <v>0</v>
@@ -4675,22 +4647,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G50" s="14">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H50" s="20" t="b">
         <v>0</v>
@@ -4719,22 +4691,22 @@
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G51" s="14">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H51" s="20" t="b">
         <v>0</v>
@@ -4763,22 +4735,22 @@
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G52" s="14">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H52" s="20" t="b">
         <v>0</v>
@@ -4807,22 +4779,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G53" s="14">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H53" s="20" t="b">
         <v>0</v>
@@ -4851,22 +4823,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G54" s="14">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H54" s="20" t="b">
         <v>0</v>
@@ -4895,22 +4867,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G55" s="14">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H55" s="20" t="b">
         <v>0</v>
@@ -4939,22 +4911,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G56" s="14">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H56" s="20" t="b">
         <v>0</v>
@@ -4983,22 +4955,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G57" s="14">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H57" s="20" t="b">
         <v>0</v>
@@ -5027,22 +4999,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G58" s="14">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H58" s="20" t="b">
         <v>0</v>
@@ -5071,22 +5043,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G59" s="14">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H59" s="20" t="b">
         <v>0</v>
@@ -5115,22 +5087,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G60" s="14">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H60" s="20" t="b">
         <v>0</v>
@@ -5159,22 +5131,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E61" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G61" s="14">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H61" s="20" t="b">
         <v>0</v>
@@ -5203,22 +5175,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G62" s="14">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H62" s="20" t="b">
         <v>0</v>
@@ -5247,22 +5219,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G63" s="14">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H63" s="20" t="b">
         <v>0</v>
@@ -5291,22 +5263,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G64" s="14">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H64" s="20" t="b">
         <v>0</v>
@@ -5335,22 +5307,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G65" s="14">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H65" s="20" t="b">
         <v>0</v>
@@ -5379,22 +5351,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G66" s="14">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H66" s="20" t="b">
         <v>0</v>
@@ -5423,22 +5395,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G67" s="14">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H67" s="20" t="b">
         <v>0</v>
@@ -5467,22 +5439,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G68" s="14">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H68" s="20" t="b">
         <v>0</v>
@@ -5511,22 +5483,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G69" s="14">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H69" s="20" t="b">
         <v>0</v>
@@ -5555,22 +5527,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F70" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G70" s="14">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H70" s="20" t="b">
         <v>0</v>
@@ -5599,22 +5571,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G71" s="14">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H71" s="20" t="b">
         <v>0</v>
@@ -5643,22 +5615,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G72" s="14">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H72" s="20" t="b">
         <v>0</v>
@@ -5687,22 +5659,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G73" s="14">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H73" s="20" t="b">
         <v>0</v>
@@ -5731,22 +5703,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F74" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G74" s="14">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H74" s="20" t="b">
         <v>0</v>
@@ -5775,22 +5747,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G75" s="14">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H75" s="20" t="b">
         <v>0</v>
@@ -5819,22 +5791,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G76" s="14">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H76" s="20" t="b">
         <v>0</v>
@@ -5863,22 +5835,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G77" s="14">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H77" s="20" t="b">
         <v>0</v>
@@ -5907,22 +5879,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E78" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F78" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G78" s="14">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H78" s="20" t="b">
         <v>0</v>
@@ -5951,22 +5923,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E79" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F79" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G79" s="14">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H79" s="20" t="b">
         <v>0</v>
@@ -5995,22 +5967,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E80" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F80" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G80" s="14">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H80" s="20" t="b">
         <v>0</v>
@@ -6039,22 +6011,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C81" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D81" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E81" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F81" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G81" s="14">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H81" s="20" t="b">
         <v>0</v>
@@ -6083,22 +6055,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E82" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F82" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G82" s="14">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H82" s="20" t="b">
         <v>0</v>
@@ -6127,22 +6099,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E83" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G83" s="14">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H83" s="20" t="b">
         <v>0</v>
@@ -6171,66 +6143,66 @@
         <v>11</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
+        <v>358</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="G84" s="14">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H84" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I84" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K84" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K84" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M84" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N84" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" t="s">
-        <v>288</v>
+        <v>350</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="G85" s="14">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H85" s="20" t="b">
         <v>0</v>
@@ -6254,27 +6226,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
-      </c>
-      <c r="D86" t="s">
-        <v>380</v>
+        <v>351</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="E86" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F86" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G86" s="14">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H86" s="20" t="b">
         <v>0</v>
@@ -6295,94 +6267,6 @@
         <v>0</v>
       </c>
       <c r="N86" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D87" t="s">
-        <v>381</v>
-      </c>
-      <c r="E87" t="s">
-        <v>369</v>
-      </c>
-      <c r="F87" t="s">
-        <v>378</v>
-      </c>
-      <c r="G87" s="14">
-        <v>289</v>
-      </c>
-      <c r="H87" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K87" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C88" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" t="s">
-        <v>382</v>
-      </c>
-      <c r="E88" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" t="s">
-        <v>379</v>
-      </c>
-      <c r="G88" s="14">
-        <v>290</v>
-      </c>
-      <c r="H88" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N88" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6396,11 +6280,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,13 +7063,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>22</v>
@@ -7196,13 +7080,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>22</v>
@@ -7213,13 +7097,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>22</v>
@@ -7230,13 +7114,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>22</v>
@@ -7247,13 +7131,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>22</v>
@@ -7264,13 +7148,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>22</v>
@@ -7281,13 +7165,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>22</v>
@@ -7298,13 +7182,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>22</v>
@@ -7315,13 +7199,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>22</v>
@@ -7332,13 +7216,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>22</v>
@@ -7349,13 +7233,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>22</v>
@@ -7366,13 +7250,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>22</v>
@@ -7383,13 +7267,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>22</v>
@@ -7400,13 +7284,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>22</v>
@@ -7417,13 +7301,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>22</v>
@@ -7434,13 +7318,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>22</v>
@@ -7451,13 +7335,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>22</v>
@@ -7468,13 +7352,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>22</v>
@@ -7485,13 +7369,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>22</v>
@@ -7502,13 +7386,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>22</v>
@@ -7519,13 +7403,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>22</v>
@@ -7536,13 +7420,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>22</v>
@@ -7553,13 +7437,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>22</v>
@@ -7570,13 +7454,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>22</v>
@@ -7587,13 +7471,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>22</v>
@@ -7604,13 +7488,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>22</v>
@@ -7621,13 +7505,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>22</v>
@@ -7638,13 +7522,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>22</v>
@@ -7655,13 +7539,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>22</v>
@@ -7672,13 +7556,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>22</v>
@@ -7689,13 +7573,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>22</v>
@@ -7706,13 +7590,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>22</v>
@@ -7723,13 +7607,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E78" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>22</v>
@@ -7740,13 +7624,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E79" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>22</v>
@@ -7757,13 +7641,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>22</v>
@@ -7774,13 +7658,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C81" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>22</v>
@@ -7791,13 +7675,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E82" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>22</v>
@@ -7808,13 +7692,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>22</v>
@@ -7825,16 +7709,16 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -7842,13 +7726,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>23</v>
@@ -7859,49 +7743,15 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E86" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>360</v>
-      </c>
-      <c r="C87" t="s">
-        <v>360</v>
-      </c>
-      <c r="E87" t="s">
-        <v>360</v>
-      </c>
-      <c r="F87" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>361</v>
-      </c>
-      <c r="C88" t="s">
-        <v>361</v>
-      </c>
-      <c r="E88" t="s">
-        <v>361</v>
-      </c>
-      <c r="F88" s="17" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$86</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -469,63 +469,6 @@
     <t>IsCustomField</t>
   </si>
   <si>
-    <t xml:space="preserve">RETAIL_IND_52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_81 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAIL_IND_87 </t>
-  </si>
-  <si>
     <t>RETAIL_IND_100</t>
   </si>
   <si>
@@ -623,63 +566,6 @@
   </si>
   <si>
     <t>RETAIL_IND_231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_81 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND_87 </t>
   </si>
   <si>
     <t>IND_100</t>
@@ -1223,11 +1109,125 @@
 - "1" in assenza di uno sconfino nell'ultimo mese e in presenza di uno sconfino fra i 60 e i 30 giorni antecedenti la data di elaborazione; 
 </t>
   </si>
+  <si>
+    <t>RETAIL_IND_52</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_53</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_54</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_55</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_60</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_61</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_62</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_63</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_64</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_70</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_71</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_80</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_81</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_82</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_83</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_84</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_85</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_86</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_87</t>
+  </si>
+  <si>
+    <t>IND_52</t>
+  </si>
+  <si>
+    <t>IND_53</t>
+  </si>
+  <si>
+    <t>IND_54</t>
+  </si>
+  <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>IND_81</t>
+  </si>
+  <si>
+    <t>IND_82</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>IND_84</t>
+  </si>
+  <si>
+    <t>IND_85</t>
+  </si>
+  <si>
+    <t>IND_86</t>
+  </si>
+  <si>
+    <t>IND_87</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1565,7 +1565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1623,7 +1629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1681,7 +1693,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1739,7 +1757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1797,7 +1821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1855,7 +1885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1903,7 +1939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1961,7 +2003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2019,7 +2067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2077,7 +2131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2135,7 +2195,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2193,7 +2259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2489,30 +2561,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.83984375" style="15" customWidth="1"/>
     <col min="2" max="2" width="21" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.68359375" customWidth="1"/>
+    <col min="5" max="5" width="22.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.578125" customWidth="1"/>
     <col min="7" max="7" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1021" width="8.7109375"/>
+    <col min="8" max="8" width="21.68359375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.41796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.68359375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.15625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.26171875" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.15625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="1019" width="8.68359375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2602,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2706,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
@@ -2838,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
@@ -3014,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
@@ -3058,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="20" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
@@ -3146,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>11</v>
       </c>
@@ -3234,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>11</v>
       </c>
@@ -3278,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20" t="s">
         <v>11</v>
       </c>
@@ -3322,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
@@ -3366,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>11</v>
       </c>
@@ -3410,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20" t="s">
         <v>11</v>
       </c>
@@ -3454,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
         <v>11</v>
       </c>
@@ -3498,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>11</v>
       </c>
@@ -3542,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20" t="s">
         <v>11</v>
       </c>
@@ -3586,24 +3658,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="G26" s="14">
         <v>223</v>
@@ -3630,24 +3702,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="F27" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="G27" s="14">
         <v>224</v>
@@ -3674,24 +3746,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="G28" s="14">
         <v>225</v>
@@ -3718,24 +3790,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="G29" s="14">
         <v>226</v>
@@ -3762,24 +3834,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>367</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="G30" s="14">
         <v>227</v>
@@ -3806,24 +3878,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="G31" s="14">
         <v>228</v>
@@ -3850,24 +3922,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G32" s="14">
         <v>229</v>
@@ -3894,24 +3966,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="D33" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>370</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G33" s="14">
         <v>230</v>
@@ -3938,24 +4010,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G34" s="14">
         <v>231</v>
@@ -3982,24 +4054,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="G35" s="14">
         <v>232</v>
@@ -4026,24 +4098,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="G36" s="14">
         <v>233</v>
@@ -4070,24 +4142,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G37" s="14">
         <v>234</v>
@@ -4114,24 +4186,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>375</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="G38" s="14">
         <v>235</v>
@@ -4158,24 +4230,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="D39" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G39" s="14">
         <v>236</v>
@@ -4202,24 +4274,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="D40" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G40" s="14">
         <v>237</v>
@@ -4246,24 +4318,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="F41" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="G41" s="14">
         <v>238</v>
@@ -4290,24 +4362,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="D42" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G42" s="14">
         <v>239</v>
@@ -4334,24 +4406,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="F43" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G43" s="14">
         <v>240</v>
@@ -4378,24 +4450,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="E44" t="s">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G44" s="14">
         <v>241</v>
@@ -4422,24 +4494,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="G45" s="14">
         <v>242</v>
@@ -4466,24 +4538,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G46" s="14">
         <v>243</v>
@@ -4510,24 +4582,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="G47" s="14">
         <v>244</v>
@@ -4554,24 +4626,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="G48" s="14">
         <v>245</v>
@@ -4598,24 +4670,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="G49" s="14">
         <v>246</v>
@@ -4642,24 +4714,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="G50" s="14">
         <v>247</v>
@@ -4686,24 +4758,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="G51" s="14">
         <v>248</v>
@@ -4730,24 +4802,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="G52" s="14">
         <v>249</v>
@@ -4774,24 +4846,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="G53" s="14">
         <v>250</v>
@@ -4818,24 +4890,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="G54" s="14">
         <v>251</v>
@@ -4862,24 +4934,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="G55" s="14">
         <v>252</v>
@@ -4906,24 +4978,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="G56" s="14">
         <v>253</v>
@@ -4950,24 +5022,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G57" s="14">
         <v>254</v>
@@ -4994,24 +5066,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G58" s="14">
         <v>255</v>
@@ -5038,24 +5110,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="G59" s="14">
         <v>256</v>
@@ -5082,24 +5154,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="G60" s="14">
         <v>257</v>
@@ -5126,24 +5198,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="G61" s="14">
         <v>258</v>
@@ -5170,24 +5242,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="G62" s="14">
         <v>259</v>
@@ -5214,24 +5286,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F63" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="G63" s="14">
         <v>260</v>
@@ -5258,24 +5330,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="G64" s="14">
         <v>261</v>
@@ -5302,24 +5374,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="F65" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="G65" s="14">
         <v>262</v>
@@ -5346,24 +5418,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="F66" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="G66" s="14">
         <v>263</v>
@@ -5390,24 +5462,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="G67" s="14">
         <v>264</v>
@@ -5434,24 +5506,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="F68" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G68" s="14">
         <v>265</v>
@@ -5478,24 +5550,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F69" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="G69" s="14">
         <v>266</v>
@@ -5522,24 +5594,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="G70" s="14">
         <v>267</v>
@@ -5566,24 +5638,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F71" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="G71" s="14">
         <v>268</v>
@@ -5610,24 +5682,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="G72" s="14">
         <v>269</v>
@@ -5654,24 +5726,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F73" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G73" s="14">
         <v>270</v>
@@ -5698,24 +5770,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F74" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="G74" s="14">
         <v>271</v>
@@ -5742,24 +5814,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="G75" s="14">
         <v>272</v>
@@ -5786,24 +5858,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F76" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="G76" s="14">
         <v>273</v>
@@ -5830,24 +5902,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="G77" s="14">
         <v>274</v>
@@ -5874,24 +5946,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E78" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G78" s="14">
         <v>275</v>
@@ -5918,24 +5990,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="E79" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="G79" s="14">
         <v>276</v>
@@ -5962,24 +6034,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="E80" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="G80" s="14">
         <v>277</v>
@@ -6006,24 +6078,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="E81" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="G81" s="14">
         <v>278</v>
@@ -6050,24 +6122,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="E82" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="F82" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G82" s="14">
         <v>279</v>
@@ -6094,24 +6166,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E83" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F83" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G83" s="14">
         <v>280</v>
@@ -6138,24 +6210,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D84" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="G84" s="14">
         <v>283</v>
@@ -6182,24 +6254,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="E85" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="G85" s="14">
         <v>284</v>
@@ -6226,24 +6298,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="E86" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F86" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G86" s="14">
         <v>285</v>
@@ -6271,7 +6343,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6282,22 +6353,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD85"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.15625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375"/>
+    <col min="5" max="5" width="40.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26171875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.68359375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -6307,7 +6378,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6327,7 +6398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6344,7 +6415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6361,7 +6432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6378,7 +6449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6395,7 +6466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6412,7 +6483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6429,7 +6500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6446,7 +6517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6463,7 +6534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6480,7 +6551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -6548,7 +6619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6565,7 +6636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6582,7 +6653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -6599,7 +6670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -6616,7 +6687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6633,7 +6704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6650,7 +6721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6667,7 +6738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6684,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6701,7 +6772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6718,1038 +6789,1038 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>344</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E78" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="E80" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="E83" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E84" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>22</v>
@@ -7771,19 +7842,19 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.28515625"/>
-    <col min="2" max="3" width="19.5703125"/>
-    <col min="4" max="4" width="13.7109375"/>
-    <col min="5" max="7" width="11.7109375"/>
-    <col min="8" max="8" width="19.5703125"/>
+    <col min="1" max="1" width="27.26171875"/>
+    <col min="2" max="3" width="19.578125"/>
+    <col min="4" max="4" width="13.68359375"/>
+    <col min="5" max="7" width="11.68359375"/>
+    <col min="8" max="8" width="19.578125"/>
     <col min="9" max="9" width="39"/>
-    <col min="10" max="13" width="11.7109375"/>
-    <col min="14" max="1025" width="8.7109375"/>
+    <col min="10" max="13" width="11.68359375"/>
+    <col min="14" max="1025" width="8.68359375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -7818,7 +7889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7841,7 +7912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7867,7 +7938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7893,7 +7964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -7919,7 +7990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -7942,7 +8013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7965,7 +8036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -8000,7 +8071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8029,7 +8100,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8056,7 +8127,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -8083,7 +8154,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -8110,7 +8181,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8139,7 +8210,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -8166,7 +8237,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$90</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="405">
   <si>
     <t>Variable</t>
   </si>
@@ -722,15 +722,6 @@
     <t>Indicatore 52 - XRA_MEAN_SCONF_L3M</t>
   </si>
   <si>
-    <t>Indicatore 53 - XRA_MEAN_NUM_GG_L3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicatore 54 - XRA_NOSCONF_CONT_L3M </t>
-  </si>
-  <si>
-    <t>Indicatore 55 - XRA_30GG_100_002</t>
-  </si>
-  <si>
     <t>Indicatore 60 - CR0 - PRESENZA DI INFO</t>
   </si>
   <si>
@@ -1097,131 +1088,218 @@
 - FLAG_STIPENDIO_L3M = 1, se in almeno un punto di osservazione fra i tre considerati, l'importo dello stipendio attribuito al SNDG oggetto di valutazione EW risulta essere maggiore di 0;</t>
   </si>
   <si>
+    <t>RETAIL_IND_52</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_53</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_60</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_61</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_62</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_63</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_64</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_70</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_71</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_80</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_81</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_82</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_83</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_84</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_85</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_86</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_87</t>
+  </si>
+  <si>
+    <t>IND_52</t>
+  </si>
+  <si>
+    <t>IND_53</t>
+  </si>
+  <si>
+    <t>IND_60</t>
+  </si>
+  <si>
+    <t>IND_61</t>
+  </si>
+  <si>
+    <t>IND_62</t>
+  </si>
+  <si>
+    <t>IND_63</t>
+  </si>
+  <si>
+    <t>IND_64</t>
+  </si>
+  <si>
+    <t>IND_70</t>
+  </si>
+  <si>
+    <t>IND_71</t>
+  </si>
+  <si>
+    <t>IND_80</t>
+  </si>
+  <si>
+    <t>IND_81</t>
+  </si>
+  <si>
+    <t>IND_82</t>
+  </si>
+  <si>
+    <t>IND_83</t>
+  </si>
+  <si>
+    <t>IND_84</t>
+  </si>
+  <si>
+    <t>IND_85</t>
+  </si>
+  <si>
+    <t>IND_86</t>
+  </si>
+  <si>
+    <t>IND_87</t>
+  </si>
+  <si>
+    <t>IND_14</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_14</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_20</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_19</t>
+  </si>
+  <si>
+    <t>IND_19</t>
+  </si>
+  <si>
+    <t>IND_20</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_51</t>
+  </si>
+  <si>
+    <t>IND_51</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_50</t>
+  </si>
+  <si>
+    <t>IND_50</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_200</t>
+  </si>
+  <si>
+    <t>IND_200</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_150</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_151</t>
+  </si>
+  <si>
+    <t>IND_150</t>
+  </si>
+  <si>
+    <t>IND_151</t>
+  </si>
+  <si>
+    <t>Indicatore 14 - Avvio di una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Avvio di una procedura concorsuale per il debitore, nel caso di valorizzazione di uno degli eventi pregiuzievoli:
+- Amministrazione straordinaria
+- Concordato preventivo
+- Fallimento
+- Liquidazione coatta amministrativa</t>
+  </si>
+  <si>
+    <t>Notizia di richiesta ammissione ad una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Indicatore 19 - Richiesta ammissione ad una procedura concorsuale per il debitore</t>
+  </si>
+  <si>
+    <t>Deposito/Pubblicazione di accordo ristrutturazione con intento liquidatorio ai sensi dell'art. 182/bis</t>
+  </si>
+  <si>
+    <t>Indicatore 20 - Deposito/Pubblicazione di accordo ristrutturazione per liquidazione</t>
+  </si>
+  <si>
+    <t>Indicatore 50 - XRA_MEAN_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 51 - XRA_MEAN_NUM_GG_L3M</t>
+  </si>
+  <si>
+    <t>Indicatore 53 - XRA_30GG_100_002</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le possibili valorizzazioni del flag sono 0 oppure 1.
 Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
 In tutte le restanti casistiche il flag dovrà essere uguale a 0.
-In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'indicatore conta il numero di mesi per cui non si riscontra nessuno sconfino. 
-In particolare l'indicatore assume valore:
-- "0" in presenza di uno sconfino nell'ultimo mese ; 
-- "1" in assenza di uno sconfino nell'ultimo mese e in presenza di uno sconfino fra i 60 e i 30 giorni antecedenti la data di elaborazione; 
-</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_52</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_53</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_54</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_55</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_60</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_61</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_62</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_63</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_64</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_70</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_71</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_80</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_81</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_82</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_83</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_84</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_85</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_86</t>
-  </si>
-  <si>
-    <t>RETAIL_IND_87</t>
-  </si>
-  <si>
-    <t>IND_52</t>
-  </si>
-  <si>
-    <t>IND_53</t>
-  </si>
-  <si>
-    <t>IND_54</t>
-  </si>
-  <si>
-    <t>IND_55</t>
-  </si>
-  <si>
-    <t>IND_60</t>
-  </si>
-  <si>
-    <t>IND_61</t>
-  </si>
-  <si>
-    <t>IND_62</t>
-  </si>
-  <si>
-    <t>IND_63</t>
-  </si>
-  <si>
-    <t>IND_64</t>
-  </si>
-  <si>
-    <t>IND_70</t>
-  </si>
-  <si>
-    <t>IND_71</t>
-  </si>
-  <si>
-    <t>IND_80</t>
-  </si>
-  <si>
-    <t>IND_81</t>
-  </si>
-  <si>
-    <t>IND_82</t>
-  </si>
-  <si>
-    <t>IND_83</t>
-  </si>
-  <si>
-    <t>IND_84</t>
-  </si>
-  <si>
-    <t>IND_85</t>
-  </si>
-  <si>
-    <t>IND_86</t>
-  </si>
-  <si>
-    <t>IND_87</t>
+In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra: 
+- il rapporto fra sconfino per cassa e utilizzato per cassa e non, entrambi valutati alla data; 
+- il rapporto fra lo sconfino per cassa e utilizzato per cassa e non, entrambi valutati negli ultimi 90 giorni.  </t>
+  </si>
+  <si>
+    <t>Indicatore 200 - XRA_MEANMISS_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Indicatore 150 - FLAG_SCONF_NON_AUTOR_1G</t>
+  </si>
+  <si>
+    <t>Indicatore 151 - FLAG_SCONF_NON_AUTOR_90G</t>
+  </si>
+  <si>
+    <t>l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, viene indicata la presenza di sconfini autorizzati negli ultimi 90 giorni. L'indicatore assume valore:
+- 0, se il rmassimo valore assunto dall'indicatore 50 negli ultimi 90 giorni è 0;
+- 1, se il rmassimo valore assunto dall'indicatore 50 negli ultimi 90 giorni è 1;
+- missing, se l'indicatore 50 negli ultimi 90 giorni è sempre missing;</t>
+  </si>
+  <si>
+    <t>l'indicatore è calcolato come il rapporto tra l'importo complessivo degli sconfini "autorizzati" all'interno del flusso autor e l'importo di sconfino per cassa XRA                                                                                                                                              Per ogni controparte SNDG, l'indicatore verifica la presenza di sconfini autorizzati tra quello/quelli presenti nella giornata in oggetto di analisi. 
+Stabilita giornalmente la presenza di sconfini autorizzati, l'indicatore assume valore:
+- 0, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è maggiore o uguale a 1
+- 1, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è minore di 1
+- missing, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è missing</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1461,6 +1539,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,8 +1657,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>813940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1624,8 +1721,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>813940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,8 +1785,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>813940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1752,8 +1849,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>813940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1816,8 +1913,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>51940</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>813940</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2559,32 +2656,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="21" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.68359375" customWidth="1"/>
-    <col min="5" max="5" width="22.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.578125" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.68359375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.41796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.68359375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.15625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.26171875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.15625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1019" width="8.68359375"/>
+    <col min="8" max="8" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="1019" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2699,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -2646,7 +2743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
@@ -2690,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2778,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -2822,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -2866,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
@@ -3042,82 +3139,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:14" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="34">
         <v>209</v>
       </c>
-      <c r="H12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20" t="s">
+      <c r="H12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15" t="b">
+      <c r="K12" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="N12" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="34">
         <v>210</v>
       </c>
-      <c r="H13" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20" t="b">
+      <c r="H13" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="20" t="b">
+      <c r="K13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="19" t="b">
@@ -3126,911 +3223,911 @@
       <c r="M13" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="N13" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="34">
+        <v>211</v>
+      </c>
+      <c r="H14" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="14">
-        <v>211</v>
-      </c>
-      <c r="H14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20" t="b">
+      <c r="G15" s="34">
+        <v>212</v>
+      </c>
+      <c r="H15" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="20" t="b">
+      <c r="K15" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="L15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="14">
-        <v>212</v>
-      </c>
-      <c r="H15" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20" t="b">
+      <c r="G16" s="34">
+        <v>213</v>
+      </c>
+      <c r="H16" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J16" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="20" t="b">
+      <c r="K16" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="L16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="14">
-        <v>213</v>
-      </c>
-      <c r="H16" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20" t="b">
+      <c r="G17" s="34">
+        <v>214</v>
+      </c>
+      <c r="H17" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="20" t="b">
+      <c r="K17" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="L17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="14">
-        <v>214</v>
-      </c>
-      <c r="H17" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20" t="b">
+      <c r="G18" s="34">
+        <v>215</v>
+      </c>
+      <c r="H18" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J18" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="20" t="b">
+      <c r="K18" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="L18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="34">
+        <v>216</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="34">
+        <v>217</v>
+      </c>
+      <c r="H20" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E21" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="14">
-        <v>215</v>
-      </c>
-      <c r="H18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20" t="b">
+      <c r="G21" s="34">
+        <v>218</v>
+      </c>
+      <c r="H21" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="20" t="b">
+      <c r="K21" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="L21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E22" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="14">
-        <v>216</v>
-      </c>
-      <c r="H19" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20" t="b">
+      <c r="G22" s="34">
+        <v>219</v>
+      </c>
+      <c r="H22" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J22" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="20" t="b">
+      <c r="K22" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="L22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="14">
-        <v>217</v>
-      </c>
-      <c r="H20" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20" t="b">
+      <c r="G23" s="34">
+        <v>220</v>
+      </c>
+      <c r="H23" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J23" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="20" t="b">
+      <c r="K23" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="L23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="14">
-        <v>218</v>
-      </c>
-      <c r="H21" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20" t="b">
+      <c r="G24" s="34">
+        <v>221</v>
+      </c>
+      <c r="H24" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="20" t="b">
+      <c r="K24" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="L24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="14">
-        <v>219</v>
-      </c>
-      <c r="H22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="G25" s="34">
+        <v>222</v>
+      </c>
+      <c r="H25" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="K25" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G26" s="34">
+        <v>223</v>
+      </c>
+      <c r="H26" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="34">
+        <v>224</v>
+      </c>
+      <c r="H27" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="34">
+        <v>225</v>
+      </c>
+      <c r="H28" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="G29" s="34">
+        <v>226</v>
+      </c>
+      <c r="H29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="34">
+        <v>227</v>
+      </c>
+      <c r="H30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="b">
+      <c r="G31" s="34">
+        <v>228</v>
+      </c>
+      <c r="H31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="34">
+        <v>229</v>
+      </c>
+      <c r="H32" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="20" t="b">
+      <c r="K32" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="L32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20" t="b">
+      <c r="G33" s="14">
+        <v>232</v>
+      </c>
+      <c r="H33" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="20" t="b">
+      <c r="K33" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="L33" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" t="s">
-        <v>363</v>
-      </c>
-      <c r="F26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="14">
-        <v>223</v>
-      </c>
-      <c r="H26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" t="s">
-        <v>364</v>
-      </c>
-      <c r="F27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G27" s="14">
-        <v>224</v>
-      </c>
-      <c r="H27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E28" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="14">
-        <v>225</v>
-      </c>
-      <c r="H28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" t="s">
-        <v>347</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E29" t="s">
-        <v>366</v>
-      </c>
-      <c r="F29" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="14">
-        <v>226</v>
-      </c>
-      <c r="H29" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C30" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F30" t="s">
-        <v>224</v>
-      </c>
-      <c r="G30" s="14">
-        <v>227</v>
-      </c>
-      <c r="H30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" t="s">
-        <v>349</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="14">
-        <v>228</v>
-      </c>
-      <c r="H31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="14">
-        <v>229</v>
-      </c>
-      <c r="H32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" t="s">
-        <v>370</v>
-      </c>
-      <c r="F33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="14">
-        <v>230</v>
-      </c>
-      <c r="H33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" t="s">
-        <v>371</v>
-      </c>
-      <c r="F34" t="s">
-        <v>228</v>
-      </c>
       <c r="G34" s="14">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="20" t="b">
         <v>0</v>
@@ -4054,71 +4151,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F35" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G35" s="14">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H35" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I35" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K35" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K35" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M35" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N35" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N35" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G36" s="14">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H36" s="20" t="b">
         <v>0</v>
@@ -4142,115 +4239,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G37" s="14">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H37" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I37" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="14">
+        <v>237</v>
+      </c>
+      <c r="H38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J38" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="20" t="b">
+      <c r="K38" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="14">
-        <v>235</v>
-      </c>
-      <c r="H38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="15" t="b">
+      <c r="L38" s="19" t="b">
         <v>0</v>
       </c>
       <c r="M38" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N38" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N38" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G39" s="14">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H39" s="20" t="b">
         <v>0</v>
@@ -4274,71 +4371,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G40" s="14">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H40" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="15" t="b">
+        <v>45</v>
+      </c>
+      <c r="K40" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="19" t="b">
         <v>0</v>
       </c>
       <c r="M40" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N40" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N40" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G41" s="14">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H41" s="20" t="b">
         <v>0</v>
@@ -4362,27 +4459,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G42" s="14">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H42" s="20" t="b">
         <v>0</v>
@@ -4406,27 +4503,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G43" s="14">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H43" s="20" t="b">
         <v>0</v>
@@ -4450,115 +4547,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G44" s="14">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H44" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K44" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M44" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N44" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N44" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>370</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G45" s="14">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H45" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K45" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K45" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M45" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N45" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N45" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>371</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G46" s="14">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H46" s="20" t="b">
         <v>0</v>
@@ -4582,291 +4679,291 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E47" t="s">
+        <v>372</v>
+      </c>
+      <c r="F47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="14">
+        <v>246</v>
+      </c>
+      <c r="H47" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="14">
+        <v>247</v>
+      </c>
+      <c r="H48" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="34">
+        <v>248</v>
+      </c>
+      <c r="H49" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="34">
+        <v>249</v>
+      </c>
+      <c r="H50" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D51" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="F47" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="14">
-        <v>244</v>
-      </c>
-      <c r="H47" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="20" t="s">
+      <c r="F51" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="34">
+        <v>250</v>
+      </c>
+      <c r="H51" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K47" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="18" t="s">
+      <c r="K51" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D48" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D52" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" s="14">
-        <v>245</v>
-      </c>
-      <c r="H48" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="20" t="s">
+      <c r="F52" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="34">
+        <v>251</v>
+      </c>
+      <c r="H52" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="18" t="s">
+      <c r="K52" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>142</v>
       </c>
-      <c r="D49" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" t="s">
         <v>175</v>
       </c>
-      <c r="F49" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="14">
-        <v>246</v>
-      </c>
-      <c r="H49" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K49" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="14">
-        <v>247</v>
-      </c>
-      <c r="H50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" t="s">
-        <v>247</v>
-      </c>
-      <c r="G51" s="14">
-        <v>248</v>
-      </c>
-      <c r="H51" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" t="s">
-        <v>248</v>
-      </c>
-      <c r="G52" s="14">
-        <v>249</v>
-      </c>
-      <c r="H52" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" t="s">
-        <v>280</v>
-      </c>
-      <c r="E53" t="s">
-        <v>179</v>
-      </c>
       <c r="F53" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G53" s="14">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H53" s="20" t="b">
         <v>0</v>
@@ -4890,27 +4987,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G54" s="14">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H54" s="20" t="b">
         <v>0</v>
@@ -4934,27 +5031,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G55" s="14">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H55" s="20" t="b">
         <v>0</v>
@@ -4978,27 +5075,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G56" s="14">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H56" s="20" t="b">
         <v>0</v>
@@ -5022,27 +5119,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G57" s="14">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H57" s="20" t="b">
         <v>0</v>
@@ -5066,27 +5163,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G58" s="14">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H58" s="20" t="b">
         <v>0</v>
@@ -5110,27 +5207,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G59" s="14">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H59" s="20" t="b">
         <v>0</v>
@@ -5154,27 +5251,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G60" s="14">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H60" s="20" t="b">
         <v>0</v>
@@ -5198,27 +5295,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G61" s="14">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H61" s="20" t="b">
         <v>0</v>
@@ -5242,27 +5339,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G62" s="14">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H62" s="20" t="b">
         <v>0</v>
@@ -5286,27 +5383,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G63" s="14">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H63" s="20" t="b">
         <v>0</v>
@@ -5330,27 +5427,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G64" s="14">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H64" s="20" t="b">
         <v>0</v>
@@ -5374,27 +5471,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F65" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G65" s="14">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H65" s="20" t="b">
         <v>0</v>
@@ -5418,27 +5515,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F66" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G66" s="14">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H66" s="20" t="b">
         <v>0</v>
@@ -5462,27 +5559,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G67" s="14">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H67" s="20" t="b">
         <v>0</v>
@@ -5506,27 +5603,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F68" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G68" s="14">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H68" s="20" t="b">
         <v>0</v>
@@ -5550,27 +5647,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F69" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G69" s="14">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H69" s="20" t="b">
         <v>0</v>
@@ -5594,27 +5691,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G70" s="14">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H70" s="20" t="b">
         <v>0</v>
@@ -5638,27 +5735,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G71" s="14">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H71" s="20" t="b">
         <v>0</v>
@@ -5682,27 +5779,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G72" s="14">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H72" s="20" t="b">
         <v>0</v>
@@ -5726,27 +5823,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F73" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G73" s="14">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H73" s="20" t="b">
         <v>0</v>
@@ -5770,27 +5867,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G74" s="14">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H74" s="20" t="b">
         <v>0</v>
@@ -5814,27 +5911,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G75" s="14">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H75" s="20" t="b">
         <v>0</v>
@@ -5858,27 +5955,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G76" s="14">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H76" s="20" t="b">
         <v>0</v>
@@ -5902,27 +5999,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="29" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F77" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G77" s="14">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H77" s="20" t="b">
         <v>0</v>
@@ -5946,27 +6043,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="G78" s="14">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H78" s="20" t="b">
         <v>0</v>
@@ -5990,27 +6087,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="E79" t="s">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="G79" s="14">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H79" s="20" t="b">
         <v>0</v>
@@ -6034,27 +6131,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="G80" s="14">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H80" s="20" t="b">
         <v>0</v>
@@ -6078,27 +6175,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="20" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="G81" s="14">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H81" s="20" t="b">
         <v>0</v>
@@ -6122,27 +6219,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D82" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E82" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F82" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G82" s="14">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H82" s="20" t="b">
         <v>0</v>
@@ -6166,27 +6263,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E83" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G83" s="14">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H83" s="20" t="b">
         <v>0</v>
@@ -6210,24 +6307,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D84" t="s">
         <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G84" s="14">
         <v>283</v>
@@ -6254,24 +6351,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>340</v>
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>333</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F85" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G85" s="14">
         <v>284</v>
@@ -6280,42 +6377,42 @@
         <v>0</v>
       </c>
       <c r="I85" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K85" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K85" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M85" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N85" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="N85" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>339</v>
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>334</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F86" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G86" s="14">
         <v>285</v>
@@ -6341,6 +6438,282 @@
       <c r="N86" s="21" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" t="s">
+        <v>335</v>
+      </c>
+      <c r="E87" t="s">
+        <v>316</v>
+      </c>
+      <c r="F87" t="s">
+        <v>325</v>
+      </c>
+      <c r="G87" s="14">
+        <v>286</v>
+      </c>
+      <c r="H87" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88" t="s">
+        <v>329</v>
+      </c>
+      <c r="E88" t="s">
+        <v>317</v>
+      </c>
+      <c r="F88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" s="14">
+        <v>287</v>
+      </c>
+      <c r="H88" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E89" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="14">
+        <v>288</v>
+      </c>
+      <c r="H89" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K89" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G90" s="34">
+        <v>289</v>
+      </c>
+      <c r="H90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G91" s="34">
+        <v>290</v>
+      </c>
+      <c r="H91" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K91" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="G92" s="34">
+        <v>291</v>
+      </c>
+      <c r="H92" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K92" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="31"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6351,24 +6724,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="48.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26171875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.68359375"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -6378,7 +6751,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6398,7 +6771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6415,7 +6788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6432,7 +6805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6449,7 +6822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6483,7 +6856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6500,7 +6873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6517,7 +6890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6534,7 +6907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6551,7 +6924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6568,7 +6941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6585,1245 +6958,1347 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
         <v>127</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F28" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="17" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" t="s">
+        <v>381</v>
+      </c>
+      <c r="E29" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" t="s">
-        <v>345</v>
-      </c>
-      <c r="E27" t="s">
-        <v>345</v>
-      </c>
-      <c r="F27" s="17" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E30" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>346</v>
-      </c>
-      <c r="C28" t="s">
-        <v>346</v>
-      </c>
-      <c r="E28" t="s">
-        <v>346</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>347</v>
-      </c>
-      <c r="C29" t="s">
-        <v>347</v>
-      </c>
-      <c r="E29" t="s">
-        <v>347</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>348</v>
-      </c>
-      <c r="C30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E30" t="s">
-        <v>348</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" t="s">
-        <v>350</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C33" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E33" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E35" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F37" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="E38" t="s">
+        <v>346</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" t="s">
-        <v>356</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E39" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E40" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E41" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C42" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E44" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>353</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>354</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>355</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>383</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>383</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E82" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E85" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="E87" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="E88" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
+        <v>310</v>
+      </c>
+      <c r="E90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>385</v>
+      </c>
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="E91" t="s">
+        <v>385</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" t="s">
+        <v>386</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7842,19 +8317,19 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26171875"/>
-    <col min="2" max="3" width="19.578125"/>
-    <col min="4" max="4" width="13.68359375"/>
-    <col min="5" max="7" width="11.68359375"/>
-    <col min="8" max="8" width="19.578125"/>
+    <col min="1" max="1" width="27.28515625"/>
+    <col min="2" max="3" width="19.5703125"/>
+    <col min="4" max="4" width="13.7109375"/>
+    <col min="5" max="7" width="11.7109375"/>
+    <col min="8" max="8" width="19.5703125"/>
     <col min="9" max="9" width="39"/>
-    <col min="10" max="13" width="11.68359375"/>
-    <col min="14" max="1025" width="8.68359375"/>
+    <col min="10" max="13" width="11.7109375"/>
+    <col min="14" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -7889,7 +8364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7912,7 +8387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7938,7 +8413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7964,7 +8439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -7990,7 +8465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -8013,7 +8488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -8036,7 +8511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -8071,7 +8546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8100,7 +8575,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8127,7 +8602,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -8154,7 +8629,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -8181,7 +8656,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8210,7 +8685,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -8237,7 +8712,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1269,49 +1269,46 @@
     <t>Indicatore 53 - XRA_30GG_100_002</t>
   </si>
   <si>
-    <t xml:space="preserve">Le possibili valorizzazioni del flag sono 0 oppure 1.
+    <t>Indicatore 200 - XRA_MEANMISS_SCONF_L3M</t>
+  </si>
+  <si>
+    <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
+  </si>
+  <si>
+    <t>Indicatore 150 - FLAG_SCONF_NON_AUTOR_1G</t>
+  </si>
+  <si>
+    <t>Indicatore 151 - FLAG_SCONF_NON_AUTOR_90G</t>
+  </si>
+  <si>
+    <t>Le possibili valorizzazioni del flag sono 0 oppure 1.
 Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
-In tutte le restanti casistiche il flag dovrà essere uguale a 0.
-In particolare, per il calcolo della soglia di materialità dovrà essere considerato il massimo tra: 
-- il rapporto fra sconfino per cassa e utilizzato per cassa e non, entrambi valutati alla data; 
-- il rapporto fra lo sconfino per cassa e utilizzato per cassa e non, entrambi valutati negli ultimi 90 giorni.  </t>
-  </si>
-  <si>
-    <t>Indicatore 200 - XRA_MEANMISS_SCONF_L3M</t>
-  </si>
-  <si>
-    <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
-  </si>
-  <si>
-    <t>Indicatore 150 - FLAG_SCONF_NON_AUTOR_1G</t>
-  </si>
-  <si>
-    <t>Indicatore 151 - FLAG_SCONF_NON_AUTOR_90G</t>
-  </si>
-  <si>
-    <t>l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, viene indicata la presenza di sconfini autorizzati negli ultimi 90 giorni. L'indicatore assume valore:
-- 0, se il rmassimo valore assunto dall'indicatore 50 negli ultimi 90 giorni è 0;
-- 1, se il rmassimo valore assunto dall'indicatore 50 negli ultimi 90 giorni è 1;
-- missing, se l'indicatore 50 negli ultimi 90 giorni è sempre missing;</t>
-  </si>
-  <si>
-    <t>l'indicatore è calcolato come il rapporto tra l'importo complessivo degli sconfini "autorizzati" all'interno del flusso autor e l'importo di sconfino per cassa XRA                                                                                                                                              Per ogni controparte SNDG, l'indicatore verifica la presenza di sconfini autorizzati tra quello/quelli presenti nella giornata in oggetto di analisi. 
-Stabilita giornalmente la presenza di sconfini autorizzati, l'indicatore assume valore:
-- 0, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è maggiore o uguale a 1
-- 1, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è minore di 1
-- missing, se il rapporto tra lo sconfino complessivo giornaliero AUTOR e lo sconfino giornaliero XRA è missing</t>
+In tutte le restanti casistiche il flag dovrà essere uguale a 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indicatore è calcolato come il rapporto tra l'importo complessivo degli sconfini "autorizzati" all'interno del flusso autor e l'importo di sconfino per cassa XRA                                                                                                                                              Per ogni controparte SNDG, l'indicatore verifica la presenza di sconfini autorizzati tra quello/quelli presenti nella giornata in oggetto di analisi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, viene indicata la </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1463,84 +1460,84 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1550,13 +1547,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1658,7 +1658,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>813940</xdr:rowOff>
+      <xdr:rowOff>242440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1722,7 +1722,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>813940</xdr:rowOff>
+      <xdr:rowOff>242440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1786,7 +1786,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>813940</xdr:rowOff>
+      <xdr:rowOff>242440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1850,7 +1850,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>813940</xdr:rowOff>
+      <xdr:rowOff>242440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1914,7 +1914,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1089062</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>813940</xdr:rowOff>
+      <xdr:rowOff>242440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD34"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2678,7 @@
     <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1019" width="8.7109375"/>
+    <col min="15" max="1017" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>11</v>
       </c>
@@ -4029,8 +4029,8 @@
       <c r="C32" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>398</v>
+      <c r="D32" s="33" t="s">
+        <v>402</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>357</v>
@@ -4822,13 +4822,13 @@
         <v>383</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E50" s="32" t="s">
         <v>384</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G50" s="34">
         <v>249</v>
@@ -6626,13 +6626,13 @@
         <v>385</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E91" s="32" t="s">
         <v>387</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G91" s="34">
         <v>290</v>
@@ -6670,13 +6670,13 @@
         <v>386</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E92" s="32" t="s">
         <v>388</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G92" s="34">
         <v>291</v>
@@ -6727,8 +6727,8 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,7 +7260,7 @@
       <c r="E31" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="37" t="s">
         <v>22</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>45</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>45</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>45</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>45</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>45</v>
@@ -3164,7 +3164,7 @@
       <c r="H12" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="30" t="b">
+      <c r="I12" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -3208,8 +3208,8 @@
       <c r="H13" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>1</v>
+      <c r="I13" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>45</v>
@@ -3252,8 +3252,8 @@
       <c r="H14" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>1</v>
+      <c r="I14" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>45</v>
@@ -3296,8 +3296,8 @@
       <c r="H15" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>1</v>
+      <c r="I15" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>45</v>
@@ -3340,8 +3340,8 @@
       <c r="H16" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>1</v>
+      <c r="I16" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>45</v>
@@ -3384,8 +3384,8 @@
       <c r="H17" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>1</v>
+      <c r="I17" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>45</v>
@@ -3428,8 +3428,8 @@
       <c r="H18" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>1</v>
+      <c r="I18" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>45</v>
@@ -3472,8 +3472,8 @@
       <c r="H19" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>1</v>
+      <c r="I19" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>45</v>
@@ -3516,8 +3516,8 @@
       <c r="H20" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>1</v>
+      <c r="I20" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>45</v>
@@ -3560,8 +3560,8 @@
       <c r="H21" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>1</v>
+      <c r="I21" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>45</v>
@@ -3604,8 +3604,8 @@
       <c r="H22" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>1</v>
+      <c r="I22" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>45</v>
@@ -3648,8 +3648,8 @@
       <c r="H23" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>1</v>
+      <c r="I23" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>45</v>
@@ -3692,8 +3692,8 @@
       <c r="H24" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>1</v>
+      <c r="I24" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>45</v>
@@ -3736,7 +3736,7 @@
       <c r="H25" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I25" s="30" t="b">
+      <c r="I25" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="30" t="s">
@@ -3780,8 +3780,8 @@
       <c r="H26" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>1</v>
+      <c r="I26" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>45</v>
@@ -3824,8 +3824,8 @@
       <c r="H27" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>1</v>
+      <c r="I27" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>45</v>
@@ -3868,8 +3868,8 @@
       <c r="H28" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>1</v>
+      <c r="I28" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>45</v>
@@ -3912,7 +3912,7 @@
       <c r="H29" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I29" s="30" t="b">
+      <c r="I29" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="30" t="s">
@@ -3956,7 +3956,7 @@
       <c r="H30" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I30" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="30" t="s">
@@ -4000,7 +4000,7 @@
       <c r="H31" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I31" s="30" t="b">
+      <c r="I31" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="30" t="s">
@@ -4044,8 +4044,8 @@
       <c r="H32" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I32" s="30" t="b">
-        <v>1</v>
+      <c r="I32" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="30" t="s">
         <v>45</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>45</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>45</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>45</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>45</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>45</v>
@@ -4792,7 +4792,7 @@
       <c r="H49" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I49" s="30" t="b">
+      <c r="I49" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="30" t="s">
@@ -4836,7 +4836,7 @@
       <c r="H50" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I50" s="30" t="b">
+      <c r="I50" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="30" t="s">
@@ -4880,7 +4880,7 @@
       <c r="H51" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I51" s="30" t="b">
+      <c r="I51" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="30" t="s">
@@ -4924,7 +4924,7 @@
       <c r="H52" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="30" t="b">
+      <c r="I52" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J52" s="30" t="s">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="20" t="s">
         <v>45</v>
@@ -6596,7 +6596,7 @@
       <c r="H90" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I90" s="30" t="b">
+      <c r="I90" s="20" t="b">
         <v>0</v>
       </c>
       <c r="J90" s="30" t="s">
@@ -6640,8 +6640,8 @@
       <c r="H91" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I91" s="30" t="b">
-        <v>1</v>
+      <c r="I91" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J91" s="30" t="s">
         <v>45</v>
@@ -6684,8 +6684,8 @@
       <c r="H92" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I92" s="30" t="b">
-        <v>1</v>
+      <c r="I92" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="J92" s="30" t="s">
         <v>45</v>
@@ -6726,7 +6726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$97</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="432">
   <si>
     <t>Variable</t>
   </si>
@@ -1291,17 +1291,106 @@
   <si>
     <t xml:space="preserve">l'indiatore è calcolato come il massimo tra il (FLG_SCONF_NON_AUTOR_1G; FLG_SCONF_MAX_NO_AUTOR_89GG)                                                                                                                                          Per ogni controparte sndg, viene indicata la </t>
   </si>
+  <si>
+    <t>IND_101</t>
+  </si>
+  <si>
+    <t>IND_102</t>
+  </si>
+  <si>
+    <t>IND_103</t>
+  </si>
+  <si>
+    <t>IND_104</t>
+  </si>
+  <si>
+    <t>IND_105</t>
+  </si>
+  <si>
+    <t>Indicatore 101 - Insoluti da sistemare</t>
+  </si>
+  <si>
+    <t>Indicatore 102 - Garanzie attivate co esito negativo presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 103 - Garanzia rilasciate a favore di un nominativo a sofferenza presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 104 - Socio appartenente a società a sofferenza presso altri istituti</t>
+  </si>
+  <si>
+    <t>Indicatore 105 - Cointestatario di cointestazione a sofferenza presso altro istituto</t>
+  </si>
+  <si>
+    <t>IND_112</t>
+  </si>
+  <si>
+    <t>IND_113</t>
+  </si>
+  <si>
+    <t>Indicatore 112 - Coefficiente rata arretrata per il prodotto "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>Indicatore 113 - Numero di giorni di scaduto delle rate arretrate per il prodotto "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_101</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_102</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_103</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_104</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_105</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_112</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_113</t>
+  </si>
+  <si>
+    <t>L'indicatore rappresenta la percentuale di insoluto da sistemare per la controparte oggetto di valutazione EW in presenza di "Insoluti da sistemare" da almeno tre mesi.
+Rapporto fra la somma degli insoluti nel trimestre precedente e la somma degli scaduti nel trimestre precedente</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la comparsa di garanzie attivate con esito negativo presso altre banche (per “garanzie attivate con esito negativo” si intendono quelle escusse e per le quali il garante non ha  fatto fronte ai propri impegni).</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se la controparte oggetto di valutazione EW è socio appartenente a società di persone classificata - presso altre banche - a sofferenza, a procedura concorsuale o per la quale è presente l’evidenza di garanzie attivate con esito negativo</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se la controparte oggetto di valutazione EW è cointestatario di cointestazione classificata - presso altre banche - a sofferenza, a procedura concorsuale o per la quale è presente l’evidenza di garanzie attivate con esito negativo.</t>
+  </si>
+  <si>
+    <t>L'indicatore assume valore 1 per la controparte in presenza di una rata arretrata (Numero rate arretrate ≥ 1) , scaduta da oltre 31 giorni (Numero giorni di scaduto ≥  32).</t>
+  </si>
+  <si>
+    <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la presenza, presso altre banche, di garanzie rilasciate a favore di un nominativo a sofferenza o a procedura concorsuale, quando l’importo è significativo (l’anomalia è considerata significativa quando l’importo della sofferenza garantit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1460,84 +1549,84 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1547,13 +1636,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2656,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3247,7 @@
       <c r="F12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="14">
         <v>209</v>
       </c>
       <c r="H12" s="30" t="b">
@@ -3170,16 +3259,16 @@
       <c r="J12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35" t="b">
+      <c r="K12" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N12" s="35" t="b">
+      <c r="N12" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3202,7 +3291,7 @@
       <c r="F13" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="14">
         <v>210</v>
       </c>
       <c r="H13" s="30" t="b">
@@ -3223,7 +3312,7 @@
       <c r="M13" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N13" s="35" t="b">
+      <c r="N13" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3246,7 +3335,7 @@
       <c r="F14" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="14">
         <v>211</v>
       </c>
       <c r="H14" s="30" t="b">
@@ -3267,7 +3356,7 @@
       <c r="M14" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="35" t="b">
+      <c r="N14" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3379,7 @@
       <c r="F15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="14">
         <v>212</v>
       </c>
       <c r="H15" s="30" t="b">
@@ -3311,7 +3400,7 @@
       <c r="M15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="35" t="b">
+      <c r="N15" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3423,7 @@
       <c r="F16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="14">
         <v>213</v>
       </c>
       <c r="H16" s="30" t="b">
@@ -3355,7 +3444,7 @@
       <c r="M16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N16" s="35" t="b">
+      <c r="N16" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3378,7 +3467,7 @@
       <c r="F17" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="14">
         <v>214</v>
       </c>
       <c r="H17" s="30" t="b">
@@ -3399,7 +3488,7 @@
       <c r="M17" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="35" t="b">
+      <c r="N17" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3422,7 +3511,7 @@
       <c r="F18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="14">
         <v>215</v>
       </c>
       <c r="H18" s="30" t="b">
@@ -3443,7 +3532,7 @@
       <c r="M18" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N18" s="35" t="b">
+      <c r="N18" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3466,7 +3555,7 @@
       <c r="F19" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="14">
         <v>216</v>
       </c>
       <c r="H19" s="30" t="b">
@@ -3487,7 +3576,7 @@
       <c r="M19" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N19" s="35" t="b">
+      <c r="N19" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3510,7 +3599,7 @@
       <c r="F20" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="14">
         <v>217</v>
       </c>
       <c r="H20" s="30" t="b">
@@ -3531,7 +3620,7 @@
       <c r="M20" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N20" s="35" t="b">
+      <c r="N20" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3643,7 @@
       <c r="F21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="14">
         <v>218</v>
       </c>
       <c r="H21" s="30" t="b">
@@ -3575,7 +3664,7 @@
       <c r="M21" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N21" s="35" t="b">
+      <c r="N21" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3598,7 +3687,7 @@
       <c r="F22" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="14">
         <v>219</v>
       </c>
       <c r="H22" s="30" t="b">
@@ -3619,7 +3708,7 @@
       <c r="M22" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N22" s="35" t="b">
+      <c r="N22" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3642,7 +3731,7 @@
       <c r="F23" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="14">
         <v>220</v>
       </c>
       <c r="H23" s="30" t="b">
@@ -3663,7 +3752,7 @@
       <c r="M23" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N23" s="35" t="b">
+      <c r="N23" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3686,7 +3775,7 @@
       <c r="F24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="14">
         <v>221</v>
       </c>
       <c r="H24" s="30" t="b">
@@ -3730,7 +3819,7 @@
       <c r="F25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="14">
         <v>222</v>
       </c>
       <c r="H25" s="30" t="b">
@@ -3742,10 +3831,10 @@
       <c r="J25" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="35" t="b">
+      <c r="K25" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="19" t="b">
@@ -3774,7 +3863,7 @@
       <c r="F26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="14">
         <v>223</v>
       </c>
       <c r="H26" s="30" t="b">
@@ -3818,7 +3907,7 @@
       <c r="F27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="14">
         <v>224</v>
       </c>
       <c r="H27" s="30" t="b">
@@ -3862,7 +3951,7 @@
       <c r="F28" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="14">
         <v>225</v>
       </c>
       <c r="H28" s="30" t="b">
@@ -3906,7 +3995,7 @@
       <c r="F29" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="14">
         <v>226</v>
       </c>
       <c r="H29" s="30" t="b">
@@ -3918,10 +4007,10 @@
       <c r="J29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="35" t="b">
+      <c r="K29" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="19" t="b">
@@ -3950,7 +4039,7 @@
       <c r="F30" s="32" t="s">
         <v>396</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="14">
         <v>227</v>
       </c>
       <c r="H30" s="30" t="b">
@@ -3962,10 +4051,10 @@
       <c r="J30" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="35" t="b">
+      <c r="K30" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="19" t="b">
@@ -3994,7 +4083,7 @@
       <c r="F31" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="14">
         <v>228</v>
       </c>
       <c r="H31" s="30" t="b">
@@ -4006,10 +4095,10 @@
       <c r="J31" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="35" t="b">
+      <c r="K31" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="19" t="b">
@@ -4038,7 +4127,7 @@
       <c r="F32" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="14">
         <v>229</v>
       </c>
       <c r="H32" s="30" t="b">
@@ -4083,7 +4172,7 @@
         <v>221</v>
       </c>
       <c r="G33" s="14">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H33" s="20" t="b">
         <v>0</v>
@@ -4127,7 +4216,7 @@
         <v>222</v>
       </c>
       <c r="G34" s="14">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H34" s="20" t="b">
         <v>0</v>
@@ -4171,7 +4260,7 @@
         <v>223</v>
       </c>
       <c r="G35" s="14">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H35" s="20" t="b">
         <v>0</v>
@@ -4215,7 +4304,7 @@
         <v>224</v>
       </c>
       <c r="G36" s="14">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H36" s="20" t="b">
         <v>0</v>
@@ -4259,7 +4348,7 @@
         <v>225</v>
       </c>
       <c r="G37" s="14">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H37" s="20" t="b">
         <v>0</v>
@@ -4303,7 +4392,7 @@
         <v>226</v>
       </c>
       <c r="G38" s="14">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H38" s="20" t="b">
         <v>0</v>
@@ -4347,7 +4436,7 @@
         <v>227</v>
       </c>
       <c r="G39" s="14">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H39" s="20" t="b">
         <v>0</v>
@@ -4391,7 +4480,7 @@
         <v>228</v>
       </c>
       <c r="G40" s="14">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H40" s="20" t="b">
         <v>0</v>
@@ -4435,7 +4524,7 @@
         <v>229</v>
       </c>
       <c r="G41" s="14">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H41" s="20" t="b">
         <v>0</v>
@@ -4479,7 +4568,7 @@
         <v>230</v>
       </c>
       <c r="G42" s="14">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H42" s="20" t="b">
         <v>0</v>
@@ -4523,7 +4612,7 @@
         <v>231</v>
       </c>
       <c r="G43" s="14">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H43" s="20" t="b">
         <v>0</v>
@@ -4567,7 +4656,7 @@
         <v>232</v>
       </c>
       <c r="G44" s="14">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H44" s="20" t="b">
         <v>0</v>
@@ -4611,7 +4700,7 @@
         <v>233</v>
       </c>
       <c r="G45" s="14">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H45" s="20" t="b">
         <v>0</v>
@@ -4655,7 +4744,7 @@
         <v>234</v>
       </c>
       <c r="G46" s="14">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H46" s="20" t="b">
         <v>0</v>
@@ -4699,7 +4788,7 @@
         <v>235</v>
       </c>
       <c r="G47" s="14">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H47" s="20" t="b">
         <v>0</v>
@@ -4743,7 +4832,7 @@
         <v>236</v>
       </c>
       <c r="G48" s="14">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H48" s="20" t="b">
         <v>0</v>
@@ -4767,27 +4856,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" s="34">
-        <v>248</v>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" t="s">
+        <v>405</v>
+      </c>
+      <c r="F49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" s="14">
+        <v>246</v>
       </c>
       <c r="H49" s="30" t="b">
         <v>0</v>
@@ -4798,10 +4887,10 @@
       <c r="J49" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K49" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="35" t="b">
+      <c r="K49" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M49" s="19" t="b">
@@ -4811,71 +4900,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="G50" s="34">
-        <v>249</v>
-      </c>
-      <c r="H50" s="30" t="b">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" t="s">
+        <v>427</v>
+      </c>
+      <c r="E50" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" s="14">
+        <v>247</v>
+      </c>
+      <c r="H50" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I50" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="35" t="b">
+      <c r="J50" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="19" t="b">
         <v>0</v>
       </c>
       <c r="M50" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N50" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G51" s="34">
-        <v>250</v>
+      <c r="N50" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" t="s">
+        <v>431</v>
+      </c>
+      <c r="E51" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" s="14">
+        <v>248</v>
       </c>
       <c r="H51" s="30" t="b">
         <v>0</v>
@@ -4886,10 +4975,10 @@
       <c r="J51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K51" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="35" t="b">
+      <c r="K51" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M51" s="19" t="b">
@@ -4899,47 +4988,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="G52" s="34">
-        <v>251</v>
-      </c>
-      <c r="H52" s="30" t="b">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" t="s">
+        <v>428</v>
+      </c>
+      <c r="E52" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" s="14">
+        <v>249</v>
+      </c>
+      <c r="H52" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I52" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="35" t="b">
+      <c r="J52" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="19" t="b">
         <v>0</v>
       </c>
       <c r="M52" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N52" s="21" t="b">
+      <c r="N52" s="15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4948,212 +5037,212 @@
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>409</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>414</v>
       </c>
       <c r="G53" s="14">
+        <v>250</v>
+      </c>
+      <c r="H53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" s="14">
+        <v>251</v>
+      </c>
+      <c r="H54" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" s="14">
         <v>252</v>
       </c>
-      <c r="H53" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20" t="s">
+      <c r="H55" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" t="s">
-        <v>243</v>
-      </c>
-      <c r="G54" s="14">
+      <c r="K55" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" s="14">
         <v>253</v>
       </c>
-      <c r="H54" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="20" t="s">
+      <c r="H56" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" t="s">
-        <v>244</v>
-      </c>
-      <c r="G55" s="14">
+      <c r="K56" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" s="14">
         <v>254</v>
       </c>
-      <c r="H55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="20" t="s">
+      <c r="H57" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" t="s">
-        <v>276</v>
-      </c>
-      <c r="E56" t="s">
-        <v>178</v>
-      </c>
-      <c r="F56" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="14">
-        <v>255</v>
-      </c>
-      <c r="H56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K56" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" s="14">
-        <v>256</v>
-      </c>
-      <c r="H57" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="15" t="b">
+      <c r="K57" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M57" s="19" t="b">
@@ -5168,22 +5257,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F58" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G58" s="14">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H58" s="20" t="b">
         <v>0</v>
@@ -5212,22 +5301,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G59" s="14">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H59" s="20" t="b">
         <v>0</v>
@@ -5256,22 +5345,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G60" s="14">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H60" s="20" t="b">
         <v>0</v>
@@ -5300,22 +5389,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G61" s="14">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H61" s="20" t="b">
         <v>0</v>
@@ -5344,22 +5433,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G62" s="14">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H62" s="20" t="b">
         <v>0</v>
@@ -5388,22 +5477,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G63" s="14">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H63" s="20" t="b">
         <v>0</v>
@@ -5432,22 +5521,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G64" s="14">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H64" s="20" t="b">
         <v>0</v>
@@ -5476,22 +5565,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G65" s="14">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H65" s="20" t="b">
         <v>0</v>
@@ -5520,22 +5609,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G66" s="14">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H66" s="20" t="b">
         <v>0</v>
@@ -5564,22 +5653,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G67" s="14">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H67" s="20" t="b">
         <v>0</v>
@@ -5608,22 +5697,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G68" s="14">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H68" s="20" t="b">
         <v>0</v>
@@ -5652,22 +5741,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G69" s="14">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H69" s="20" t="b">
         <v>0</v>
@@ -5696,22 +5785,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G70" s="14">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H70" s="20" t="b">
         <v>0</v>
@@ -5740,22 +5829,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G71" s="14">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H71" s="20" t="b">
         <v>0</v>
@@ -5784,22 +5873,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G72" s="14">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H72" s="20" t="b">
         <v>0</v>
@@ -5828,22 +5917,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G73" s="14">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H73" s="20" t="b">
         <v>0</v>
@@ -5872,22 +5961,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G74" s="14">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H74" s="20" t="b">
         <v>0</v>
@@ -5916,22 +6005,22 @@
         <v>11</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G75" s="14">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H75" s="20" t="b">
         <v>0</v>
@@ -5960,22 +6049,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F76" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G76" s="14">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H76" s="20" t="b">
         <v>0</v>
@@ -6004,22 +6093,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E77" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G77" s="14">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H77" s="20" t="b">
         <v>0</v>
@@ -6048,22 +6137,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G78" s="14">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H78" s="20" t="b">
         <v>0</v>
@@ -6092,22 +6181,22 @@
         <v>11</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G79" s="14">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H79" s="20" t="b">
         <v>0</v>
@@ -6136,22 +6225,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G80" s="14">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H80" s="20" t="b">
         <v>0</v>
@@ -6176,26 +6265,26 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G81" s="14">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H81" s="20" t="b">
         <v>0</v>
@@ -6224,22 +6313,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
-        <v>311</v>
+        <v>199</v>
       </c>
       <c r="F82" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="G82" s="14">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H82" s="20" t="b">
         <v>0</v>
@@ -6268,22 +6357,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="G83" s="14">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H83" s="20" t="b">
         <v>0</v>
@@ -6312,22 +6401,22 @@
         <v>11</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E84" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="G84" s="14">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H84" s="20" t="b">
         <v>0</v>
@@ -6356,22 +6445,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="F85" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="G85" s="14">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H85" s="20" t="b">
         <v>0</v>
@@ -6396,26 +6485,26 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="G86" s="14">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H86" s="20" t="b">
         <v>0</v>
@@ -6444,22 +6533,22 @@
         <v>11</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E87" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G87" s="14">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H87" s="20" t="b">
         <v>0</v>
@@ -6488,22 +6577,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G88" s="14">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H88" s="20" t="b">
         <v>0</v>
@@ -6527,193 +6616,501 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="14">
+        <v>286</v>
+      </c>
+      <c r="H89" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" t="s">
+        <v>323</v>
+      </c>
+      <c r="G90" s="14">
+        <v>287</v>
+      </c>
+      <c r="H90" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" t="s">
+        <v>334</v>
+      </c>
+      <c r="E91" t="s">
+        <v>315</v>
+      </c>
+      <c r="F91" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91" s="14">
+        <v>288</v>
+      </c>
+      <c r="H91" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" t="s">
+        <v>335</v>
+      </c>
+      <c r="E92" t="s">
+        <v>316</v>
+      </c>
+      <c r="F92" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" s="14">
+        <v>289</v>
+      </c>
+      <c r="H92" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" t="s">
+        <v>430</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+      <c r="F93" t="s">
+        <v>417</v>
+      </c>
+      <c r="G93" s="14">
+        <v>290</v>
+      </c>
+      <c r="H93" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" t="s">
+        <v>430</v>
+      </c>
+      <c r="E94" t="s">
+        <v>416</v>
+      </c>
+      <c r="F94" t="s">
+        <v>418</v>
+      </c>
+      <c r="G94" s="14">
+        <v>291</v>
+      </c>
+      <c r="H94" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K94" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" t="s">
+        <v>329</v>
+      </c>
+      <c r="E95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" t="s">
+        <v>326</v>
+      </c>
+      <c r="G95" s="14">
+        <v>292</v>
+      </c>
+      <c r="H95" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C96" t="s">
         <v>309</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D96" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E96" t="s">
         <v>318</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F96" t="s">
         <v>327</v>
       </c>
-      <c r="G89" s="14">
-        <v>288</v>
-      </c>
-      <c r="H89" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="20" t="s">
+      <c r="G96" s="14">
+        <v>293</v>
+      </c>
+      <c r="H96" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K89" s="20" t="b">
+      <c r="K96" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L89" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N89" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="31" t="s">
+      <c r="L96" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C97" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D97" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E97" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F97" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="G90" s="34">
-        <v>289</v>
-      </c>
-      <c r="H90" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="30" t="s">
+      <c r="G97" s="14">
+        <v>294</v>
+      </c>
+      <c r="H97" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="K90" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M90" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="31" t="s">
+      <c r="K97" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C91" s="32" t="s">
+      <c r="C98" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="D91" s="32" t="s">
+      <c r="D98" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="E98" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="F91" s="32" t="s">
+      <c r="F98" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="G91" s="34">
-        <v>290</v>
-      </c>
-      <c r="H91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="30" t="s">
+      <c r="G98" s="14">
+        <v>295</v>
+      </c>
+      <c r="H98" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K91" s="30" t="b">
+      <c r="K98" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L91" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M91" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="31" t="s">
+      <c r="L98" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C99" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="D92" s="32" t="s">
+      <c r="D99" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E99" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="F99" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="G92" s="34">
-        <v>291</v>
-      </c>
-      <c r="H92" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="30" t="s">
+      <c r="G99" s="14">
+        <v>296</v>
+      </c>
+      <c r="H99" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K92" s="30" t="b">
+      <c r="K99" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="L92" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M92" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N92" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="31"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
+      <c r="L99" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="31"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6724,11 +7121,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,7 +7657,7 @@
       <c r="E31" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7277,7 +7674,7 @@
       <c r="E32" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7558,15 +7955,15 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="F49" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7575,16 +7972,16 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="E50" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -7592,15 +7989,15 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F51" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7609,16 +8006,16 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7626,16 +8023,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>423</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -7643,13 +8040,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>22</v>
@@ -7660,13 +8057,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>383</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>22</v>
@@ -7677,13 +8074,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>22</v>
@@ -7694,13 +8091,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>22</v>
@@ -7711,13 +8108,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>22</v>
@@ -7728,13 +8125,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>22</v>
@@ -7745,13 +8142,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>22</v>
@@ -7762,13 +8159,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>22</v>
@@ -7779,13 +8176,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>22</v>
@@ -7796,13 +8193,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>22</v>
@@ -7813,13 +8210,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>22</v>
@@ -7830,13 +8227,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>22</v>
@@ -7847,13 +8244,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>22</v>
@@ -7864,13 +8261,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>22</v>
@@ -7881,13 +8278,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>22</v>
@@ -7898,13 +8295,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>22</v>
@@ -7915,13 +8312,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>22</v>
@@ -7932,13 +8329,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>22</v>
@@ -7949,13 +8346,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>22</v>
@@ -7966,13 +8363,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>22</v>
@@ -7983,13 +8380,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>22</v>
@@ -8000,13 +8397,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>22</v>
@@ -8017,13 +8414,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>22</v>
@@ -8034,13 +8431,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>22</v>
@@ -8051,13 +8448,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>22</v>
@@ -8068,13 +8465,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>22</v>
@@ -8085,13 +8482,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>22</v>
@@ -8102,13 +8499,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>22</v>
@@ -8119,13 +8516,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>22</v>
@@ -8136,13 +8533,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>22</v>
@@ -8153,13 +8550,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>22</v>
@@ -8170,13 +8567,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>22</v>
@@ -8187,13 +8584,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>22</v>
@@ -8204,13 +8601,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>22</v>
@@ -8221,13 +8618,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>22</v>
@@ -8238,16 +8635,16 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C89" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E89" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -8255,13 +8652,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F90" s="17" t="s">
         <v>22</v>
@@ -8272,16 +8669,16 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="E91" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -8289,15 +8686,134 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" t="s">
+        <v>307</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" t="s">
+        <v>424</v>
+      </c>
+      <c r="E93" t="s">
+        <v>424</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" t="s">
+        <v>425</v>
+      </c>
+      <c r="E94" t="s">
+        <v>425</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+      <c r="E95" t="s">
+        <v>308</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" t="s">
+        <v>309</v>
+      </c>
+      <c r="E96" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" t="s">
+        <v>310</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" t="s">
+        <v>385</v>
+      </c>
+      <c r="E98" t="s">
+        <v>385</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
         <v>386</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C99" t="s">
         <v>386</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E99" t="s">
         <v>386</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F99" s="17" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="436">
   <si>
     <t>Variable</t>
   </si>
@@ -1372,6 +1372,18 @@
   </si>
   <si>
     <t>L'indicatore assume il valore 1 se per la controparte oggetto di valutazione EW è riscontrata la presenza, presso altre banche, di garanzie rilasciate a favore di un nominativo a sofferenza o a procedura concorsuale, quando l’importo è significativo (l’anomalia è considerata significativa quando l’importo della sofferenza garantit</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dal flusso SISBA l'indicatore ricava e valorizza tutte le forme tecniche associate alla controparte. </t>
+  </si>
+  <si>
+    <t>IND_900</t>
+  </si>
+  <si>
+    <t>Indicatore 900 - Product mix</t>
   </si>
 </sst>
 </file>
@@ -2747,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7101,16 +7113,48 @@
       </c>
     </row>
     <row r="100" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="B100" s="31"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
+      <c r="A100" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G100" s="14">
+        <v>297</v>
+      </c>
+      <c r="H100" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" s="21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7121,11 +7165,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8814,6 +8858,23 @@
         <v>386</v>
       </c>
       <c r="F99" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" t="s">
+        <v>432</v>
+      </c>
+      <c r="E100" t="s">
+        <v>432</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -1032,9 +1032,6 @@
     <t>Indicatore 109 - Coefficiente rata arretrata per prodotti rateali con RID/MAV</t>
   </si>
   <si>
-    <t>Indicatore 110 - Numero di giorni di scaduto delle rate arretrate per prodotti rateali con RID/MAV</t>
-  </si>
-  <si>
     <t>Indicatore 111 - Importo delle rate arretrate per prodotti rateali con RID/MAV</t>
   </si>
   <si>
@@ -1331,9 +1328,6 @@
     <t>Indicatore 112 - Coefficiente rata arretrata per il prodotto "cessione del quinto"</t>
   </si>
   <si>
-    <t>Indicatore 113 - Numero di giorni di scaduto delle rate arretrate per il prodotto "cessione del quinto"</t>
-  </si>
-  <si>
     <t>RETAIL_IND_101</t>
   </si>
   <si>
@@ -1384,6 +1378,12 @@
   </si>
   <si>
     <t>Indicatore 900 - Product mix</t>
+  </si>
+  <si>
+    <t>Indicatore 113 - Giorni di scaduto delle rate arretrate per il prodotto "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>Indicatore 110 - Giorni di scaduto delle rate arretrate per prodotti rateali con RID/MAV</t>
   </si>
 </sst>
 </file>
@@ -2759,30 +2759,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="B89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="15" customWidth="1"/>
     <col min="2" max="2" width="21" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1017" width="8.7109375"/>
+    <col min="8" max="8" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="1017" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
@@ -3328,24 +3328,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G14" s="14">
         <v>211</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>11</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>11</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>11</v>
       </c>
@@ -3548,24 +3548,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="32" t="s">
+      <c r="F19" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>392</v>
       </c>
       <c r="G19" s="14">
         <v>216</v>
@@ -3592,24 +3592,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>394</v>
       </c>
       <c r="G20" s="14">
         <v>217</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>11</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>11</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>11</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>11</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>11</v>
       </c>
@@ -3988,24 +3988,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>204</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G29" s="14">
         <v>226</v>
@@ -4032,24 +4032,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G30" s="14">
         <v>227</v>
@@ -4076,21 +4076,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>220</v>
@@ -4120,24 +4120,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G32" s="14">
         <v>229</v>
@@ -4164,21 +4164,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
         <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
         <v>221</v>
@@ -4208,21 +4208,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
         <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F34" t="s">
         <v>222</v>
@@ -4252,21 +4252,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
         <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F35" t="s">
         <v>223</v>
@@ -4296,21 +4296,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D36" t="s">
         <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
         <v>224</v>
@@ -4340,21 +4340,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" t="s">
         <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
         <v>225</v>
@@ -4384,21 +4384,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D38" t="s">
         <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F38" t="s">
         <v>226</v>
@@ -4428,21 +4428,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
         <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F39" t="s">
         <v>227</v>
@@ -4472,21 +4472,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D40" t="s">
         <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F40" t="s">
         <v>228</v>
@@ -4516,21 +4516,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" t="s">
         <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
         <v>229</v>
@@ -4560,21 +4560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D42" t="s">
         <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" t="s">
         <v>230</v>
@@ -4604,21 +4604,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D43" t="s">
         <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
         <v>231</v>
@@ -4648,21 +4648,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D44" t="s">
         <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F44" t="s">
         <v>232</v>
@@ -4692,21 +4692,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D45" t="s">
         <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -4736,21 +4736,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
         <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
         <v>234</v>
@@ -4780,21 +4780,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F47" t="s">
         <v>235</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>11</v>
       </c>
@@ -4868,24 +4868,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G49" s="14">
         <v>246</v>
@@ -4912,24 +4912,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G50" s="14">
         <v>247</v>
@@ -4956,24 +4956,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G51" s="14">
         <v>248</v>
@@ -5000,24 +5000,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G52" s="14">
         <v>249</v>
@@ -5044,24 +5044,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G53" s="14">
         <v>250</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>11</v>
       </c>
@@ -5132,24 +5132,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="E55" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>384</v>
-      </c>
       <c r="F55" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G55" s="14">
         <v>252</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>11</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>11</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>11</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>11</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>11</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>11</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>11</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>11</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>11</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>11</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>11</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>11</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>11</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>11</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>11</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>11</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>11</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>11</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>11</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>11</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>11</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>11</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>11</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>11</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>11</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>11</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
         <v>11</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>11</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
         <v>311</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>11</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E88" t="s">
         <v>312</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>11</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E89" t="s">
         <v>313</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>11</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E90" t="s">
         <v>314</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
         <v>11</v>
       </c>
@@ -6727,13 +6727,13 @@
         <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
         <v>315</v>
       </c>
       <c r="F91" t="s">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="G91" s="14">
         <v>288</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
         <v>11</v>
       </c>
@@ -6771,13 +6771,13 @@
         <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s">
         <v>316</v>
       </c>
       <c r="F92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G92" s="14">
         <v>289</v>
@@ -6804,24 +6804,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G93" s="14">
         <v>290</v>
@@ -6848,24 +6848,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F94" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="G94" s="14">
         <v>291</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
         <v>11</v>
       </c>
@@ -6903,13 +6903,13 @@
         <v>308</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E95" t="s">
         <v>317</v>
       </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G95" s="14">
         <v>292</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
         <v>11</v>
       </c>
@@ -6947,13 +6947,13 @@
         <v>309</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E96" t="s">
         <v>318</v>
       </c>
       <c r="F96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G96" s="14">
         <v>293</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="32" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
         <v>11</v>
       </c>
@@ -6991,13 +6991,13 @@
         <v>310</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E97" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G97" s="14">
         <v>294</v>
@@ -7024,24 +7024,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G98" s="14">
         <v>295</v>
@@ -7068,24 +7068,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G99" s="14">
         <v>296</v>
@@ -7112,24 +7112,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E100" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="D100" s="32" t="s">
+      <c r="F100" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="F100" s="32" t="s">
-        <v>435</v>
       </c>
       <c r="G100" s="14">
         <v>297</v>
@@ -7167,22 +7167,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="48.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375"/>
+    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7399,24 +7399,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -7484,41 +7484,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -7654,330 +7654,330 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E47" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -7994,92 +7994,92 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -8096,24 +8096,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -8742,41 +8742,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F93" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F94" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -8827,52 +8827,52 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C100" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E100" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>23</v>
@@ -8894,19 +8894,19 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625"/>
-    <col min="2" max="3" width="19.5703125"/>
-    <col min="4" max="4" width="13.7109375"/>
-    <col min="5" max="7" width="11.7109375"/>
-    <col min="8" max="8" width="19.5703125"/>
+    <col min="1" max="1" width="27.33203125"/>
+    <col min="2" max="3" width="19.5546875"/>
+    <col min="4" max="4" width="13.6640625"/>
+    <col min="5" max="7" width="11.6640625"/>
+    <col min="8" max="8" width="19.5546875"/>
     <col min="9" max="9" width="39"/>
-    <col min="10" max="13" width="11.7109375"/>
-    <col min="14" max="1025" width="8.7109375"/>
+    <col min="10" max="13" width="11.6640625"/>
+    <col min="14" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="K16"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="E82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,18 +6833,18 @@
         <v>0</v>
       </c>
       <c r="J93" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K93" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K93" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M93" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N93" s="15" t="b">
+      <c r="N93" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6877,18 +6877,18 @@
         <v>0</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K94" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M94" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N94" s="15" t="b">
+      <c r="N94" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7168,8 +7168,8 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8755,8 +8755,8 @@
       <c r="E93" t="s">
         <v>424</v>
       </c>
-      <c r="F93" s="37" t="s">
-        <v>23</v>
+      <c r="F93" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -8772,8 +8772,8 @@
       <c r="E94" t="s">
         <v>425</v>
       </c>
-      <c r="F94" s="37" t="s">
-        <v>23</v>
+      <c r="F94" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$1:$N$97</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="440">
   <si>
     <t>Variable</t>
   </si>
@@ -1275,12 +1275,6 @@
     <t>Media sul trimestre dell'importo di sconfino per cassa, calcolata considerando un valore pari a zero per le mensilità in cui è presente uno sconfino</t>
   </si>
   <si>
-    <t>Indicatore 150 - FLAG_SCONF_NON_AUTOR_1G</t>
-  </si>
-  <si>
-    <t>Indicatore 151 - FLAG_SCONF_NON_AUTOR_90G</t>
-  </si>
-  <si>
     <t>Le possibili valorizzazioni del flag sono 0 oppure 1.
 Il flag sarà uguale a 1 in presenza di uno sconfino superiore a 30 giorni, di importo superiore a 100 euro e oltre la soglia di materialità del 2%. 
 In tutte le restanti casistiche il flag dovrà essere uguale a 0.</t>
@@ -1384,12 +1378,30 @@
   </si>
   <si>
     <t>Indicatore 900 - Product mix</t>
+  </si>
+  <si>
+    <t>Indicatore 150 - SCONF_NON_AUTOR_1G</t>
+  </si>
+  <si>
+    <t>Indicatore 151 - SCONF_NON_AUTOR_90G</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_118</t>
+  </si>
+  <si>
+    <t>IND_118</t>
+  </si>
+  <si>
+    <t>Indicatore 118 - Importo delle rate arretrate per "cessione del quinto"</t>
+  </si>
+  <si>
+    <t>L'indicatore determina, per la controparte oggetto di valutazione EW, l'importo delle rate arretrate per il prodotto "Cessione del Quinto"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1766,7 +1778,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1842,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1906,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1970,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2034,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2098,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2152,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2216,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2280,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2344,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2408,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2472,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="E82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,7 +4143,7 @@
         <v>340</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>357</v>
@@ -4873,19 +4885,19 @@
         <v>11</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G49" s="14">
         <v>246</v>
@@ -4917,19 +4929,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G50" s="14">
         <v>247</v>
@@ -4961,42 +4973,42 @@
         <v>11</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G51" s="14">
         <v>248</v>
       </c>
-      <c r="H51" s="30" t="b">
+      <c r="H51" s="20" t="b">
         <v>0</v>
       </c>
       <c r="I51" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="34" t="b">
+      <c r="J51" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="19" t="b">
         <v>0</v>
       </c>
       <c r="M51" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N51" s="21" t="b">
+      <c r="N51" s="15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5005,19 +5017,19 @@
         <v>11</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G52" s="14">
         <v>249</v>
@@ -5049,19 +5061,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G53" s="14">
         <v>250</v>
@@ -6809,19 +6821,19 @@
         <v>11</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D93" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E93" t="s">
+        <v>413</v>
+      </c>
+      <c r="F93" t="s">
         <v>415</v>
-      </c>
-      <c r="F93" t="s">
-        <v>417</v>
       </c>
       <c r="G93" s="14">
         <v>290</v>
@@ -6853,19 +6865,19 @@
         <v>11</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E94" t="s">
+        <v>414</v>
+      </c>
+      <c r="F94" t="s">
         <v>416</v>
-      </c>
-      <c r="F94" t="s">
-        <v>418</v>
       </c>
       <c r="G94" s="14">
         <v>291</v>
@@ -7024,24 +7036,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>387</v>
+        <v>436</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E98" t="s">
+        <v>437</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G98" s="14">
         <v>295</v>
@@ -7053,18 +7065,18 @@
         <v>0</v>
       </c>
       <c r="J98" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K98" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" s="19" t="b">
+        <v>46</v>
+      </c>
+      <c r="K98" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M98" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N98" s="21" t="b">
+      <c r="N98" s="19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7073,19 +7085,19 @@
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="G99" s="14">
         <v>296</v>
@@ -7117,16 +7129,16 @@
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>435</v>
@@ -7153,6 +7165,50 @@
         <v>0</v>
       </c>
       <c r="N100" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="G101" s="14">
+        <v>298</v>
+      </c>
+      <c r="H101" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7165,11 +7221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7999,13 +8055,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>22</v>
@@ -8016,13 +8072,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E50" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>23</v>
@@ -8033,16 +8089,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E51" t="s">
-        <v>421</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>22</v>
+        <v>419</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8050,13 +8106,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>23</v>
@@ -8067,13 +8123,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>23</v>
@@ -8747,13 +8803,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>22</v>
@@ -8764,13 +8820,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>22</v>
@@ -8832,16 +8888,16 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="E98" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -8849,13 +8905,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>23</v>
@@ -8866,15 +8922,32 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C100" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="F100" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>430</v>
+      </c>
+      <c r="C101" t="s">
+        <v>430</v>
+      </c>
+      <c r="E101" t="s">
+        <v>430</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1778,7 +1778,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1842,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1970,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2034,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2098,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2152,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2280,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2408,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2472,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="G45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,25 +5078,25 @@
       <c r="G53" s="14">
         <v>250</v>
       </c>
-      <c r="H53" s="20" t="b">
+      <c r="H53" s="30" t="b">
         <v>0</v>
       </c>
       <c r="I53" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="J53" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K53" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" s="19" t="b">
+      <c r="J53" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="34" t="b">
         <v>0</v>
       </c>
       <c r="M53" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="N53" s="15" t="b">
+      <c r="N53" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7224,8 +7224,8 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:A52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8132,7 +8132,7 @@
         <v>421</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="444">
   <si>
     <t>Variable</t>
   </si>
@@ -1396,6 +1396,18 @@
   </si>
   <si>
     <t>L'indicatore determina, per la controparte oggetto di valutazione EW, l'importo delle rate arretrate per il prodotto "Cessione del Quinto"</t>
+  </si>
+  <si>
+    <t>IND_119</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_119</t>
+  </si>
+  <si>
+    <t>Presenza di garanzie a favore di un nominativo a sofferenza o a procedura concorsuale presso gruppo ISP</t>
+  </si>
+  <si>
+    <t>Indicatore 119 - Socio appartenente a società a sofferenza presso gruppo ISP</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1790,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1854,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1918,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1982,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2046,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2110,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2164,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2228,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2292,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2356,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2420,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2484,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="G45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,24 +7092,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D99" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>387</v>
+        <v>441</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E99" t="s">
+        <v>440</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="G99" s="14">
         <v>296</v>
@@ -7129,19 +7141,19 @@
         <v>11</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F100" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G100" s="14">
         <v>297</v>
@@ -7173,19 +7185,19 @@
         <v>11</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G101" s="14">
         <v>298</v>
@@ -7209,6 +7221,50 @@
         <v>0</v>
       </c>
       <c r="N101" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="G102" s="14">
+        <v>299</v>
+      </c>
+      <c r="H102" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N102" s="21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7221,11 +7277,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8905,13 +8961,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="E99" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>23</v>
@@ -8922,13 +8978,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>23</v>
@@ -8939,15 +8995,32 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>386</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
         <v>430</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>430</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>430</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F102" s="17" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/52_Inst_Variable_RETAIL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="460">
   <si>
     <t>Variable</t>
   </si>
@@ -1409,11 +1409,59 @@
   <si>
     <t>Target Default (6 months)</t>
   </si>
+  <si>
+    <t>RETAIL_IND_901</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_902</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_903</t>
+  </si>
+  <si>
+    <t>RETAIL_IND_904</t>
+  </si>
+  <si>
+    <t>IND_901</t>
+  </si>
+  <si>
+    <t>IND_902</t>
+  </si>
+  <si>
+    <t>IND_903</t>
+  </si>
+  <si>
+    <t>IND_904</t>
+  </si>
+  <si>
+    <t>IND_901 - Trend del saldo c/c su base semestrale</t>
+  </si>
+  <si>
+    <t>IND_902 - Trend del saldo c/c su base trimestrale</t>
+  </si>
+  <si>
+    <t>IND_903 - Numero cumulato dei mesi durante i quali sono avvenuti bonifici CON CONTINUITA</t>
+  </si>
+  <si>
+    <t>IND_904 - Numero cumulato dei mesi durante i quali NON sono avvenuti bonifici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indicatore riporta il numero cumulato dei mesi durante i quali sono avvenuti bonifici CON CONTINUITA’ negli ultimi 6 mesi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'indicatore riporta il numero cumulato dei mesi durante i quali NON sono avvenuti bonifici. Partendo sempre dall’ultimo mese il calcolo considera il cumulato CONTINUATIVO dei 6 mesi precedenti al momento del calcolo </t>
+  </si>
+  <si>
+    <t>Trend del saldo c/c su base semestrale</t>
+  </si>
+  <si>
+    <t>Trend del saldo c/c su base trmestrale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1790,7 +1838,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1902,7 @@
         <xdr:cNvPr id="4" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1966,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +2030,7 @@
         <xdr:cNvPr id="6" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2094,7 @@
         <xdr:cNvPr id="7" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2158,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2212,7 @@
         <xdr:cNvPr id="13" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2276,7 @@
         <xdr:cNvPr id="14" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2340,7 @@
         <xdr:cNvPr id="15" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2404,7 @@
         <xdr:cNvPr id="16" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2468,7 @@
         <xdr:cNvPr id="17" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2532,7 @@
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,6 +7316,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="G103" s="13">
+        <v>300</v>
+      </c>
+      <c r="H103" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N103" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="G104" s="13">
+        <v>301</v>
+      </c>
+      <c r="H104" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K104" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N104" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D105" t="s">
+        <v>456</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="G105" s="13">
+        <v>302</v>
+      </c>
+      <c r="H105" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N105" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D106" t="s">
+        <v>457</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="G106" s="13">
+        <v>303</v>
+      </c>
+      <c r="H106" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N106" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -7277,11 +7501,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9022,6 +9246,74 @@
       </c>
       <c r="F102" s="16" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>444</v>
+      </c>
+      <c r="C103" t="s">
+        <v>444</v>
+      </c>
+      <c r="E103" t="s">
+        <v>444</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>445</v>
+      </c>
+      <c r="C104" t="s">
+        <v>445</v>
+      </c>
+      <c r="E104" t="s">
+        <v>445</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" t="s">
+        <v>446</v>
+      </c>
+      <c r="E105" t="s">
+        <v>446</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" t="s">
+        <v>447</v>
+      </c>
+      <c r="E106" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
